--- a/data/oaincubationsos.xlsx
+++ b/data/oaincubationsos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0BDD9-9A1C-B24D-BCA1-126E7272D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F755D9CD-F396-FC43-9C88-43C42FEC821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{448C496B-2298-5E4E-AB14-2A722D9D2C4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="24">
   <si>
     <t>Genotype</t>
   </si>
@@ -74,25 +74,7 @@
     <t>cest-2.1</t>
   </si>
   <si>
-    <t>24hr4mMOA</t>
-  </si>
-  <si>
-    <t>C40uM</t>
-  </si>
-  <si>
-    <t>OA40uM</t>
-  </si>
-  <si>
-    <t>OA40uMT</t>
-  </si>
-  <si>
     <t>controlT</t>
-  </si>
-  <si>
-    <t>400nM</t>
-  </si>
-  <si>
-    <t>400nMT</t>
   </si>
   <si>
     <t>controlBac</t>
@@ -105,6 +87,27 @@
   </si>
   <si>
     <t>OA400nMBac</t>
+  </si>
+  <si>
+    <t>4nM</t>
+  </si>
+  <si>
+    <t>4nMT</t>
+  </si>
+  <si>
+    <t>OA4nM</t>
+  </si>
+  <si>
+    <t>OA4nMBac</t>
+  </si>
+  <si>
+    <t>C(sol)</t>
+  </si>
+  <si>
+    <t>OA400nMT</t>
+  </si>
+  <si>
+    <t>4mMOA</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D238B-8F9E-AA47-BBFF-CB61AD32C6EC}">
-  <dimension ref="A1:F1127"/>
+  <dimension ref="A1:F1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
-      <selection activeCell="D1053" sqref="D1053"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1775,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1795,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1815,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -1835,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1855,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1875,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1895,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1915,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -1935,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -1955,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -1975,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -1995,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2015,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -2035,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -2055,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2075,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2095,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -2115,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2135,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -2155,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2175,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2195,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2215,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2235,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2255,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2275,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2295,7 +2298,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -2315,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2335,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2355,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2375,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2395,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2415,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -2435,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2455,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2475,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -2495,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2515,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2535,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -2555,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -2575,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -2595,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -2615,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -2635,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2655,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2675,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -2695,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -2715,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2735,7 +2738,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -2755,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2775,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -2795,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -4035,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -4055,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -4075,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -4095,7 +4098,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -4115,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
@@ -4135,7 +4138,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -4155,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -4175,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -4195,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -4215,7 +4218,7 @@
         <v>6</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -4235,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -4255,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -4275,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
@@ -4295,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
@@ -4315,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
@@ -4335,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -4355,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -4375,7 +4378,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
@@ -4395,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
@@ -4415,7 +4418,7 @@
         <v>6</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
@@ -4435,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
@@ -4455,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -4475,7 +4478,7 @@
         <v>6</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -4495,7 +4498,7 @@
         <v>11</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -4515,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
@@ -4535,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -4555,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -4575,7 +4578,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -4595,7 +4598,7 @@
         <v>11</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -4615,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -4635,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -4655,7 +4658,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -4675,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
@@ -4695,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -4715,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -4735,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
@@ -4755,7 +4758,7 @@
         <v>11</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -4775,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -4795,7 +4798,7 @@
         <v>11</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -4815,7 +4818,7 @@
         <v>11</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -4835,7 +4838,7 @@
         <v>11</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -4855,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -4875,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -4895,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -4915,7 +4918,7 @@
         <v>10</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -4935,7 +4938,7 @@
         <v>10</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -4955,7 +4958,7 @@
         <v>10</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -4975,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -4995,7 +4998,7 @@
         <v>10</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -5015,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -5035,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -5055,7 +5058,7 @@
         <v>10</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -5075,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -5095,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -5115,7 +5118,7 @@
         <v>10</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -5135,7 +5138,7 @@
         <v>10</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -5155,7 +5158,7 @@
         <v>10</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -5175,7 +5178,7 @@
         <v>6</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -5195,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -5215,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -5235,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -5255,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -5275,7 +5278,7 @@
         <v>6</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -5295,7 +5298,7 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
@@ -5315,7 +5318,7 @@
         <v>6</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -5335,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C243" t="s">
         <v>8</v>
@@ -5355,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -5375,7 +5378,7 @@
         <v>6</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -5395,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
@@ -5415,7 +5418,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -5435,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -5455,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -5475,7 +5478,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -5495,7 +5498,7 @@
         <v>6</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -5515,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -5535,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
@@ -5555,7 +5558,7 @@
         <v>6</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
@@ -5575,7 +5578,7 @@
         <v>6</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -5595,7 +5598,7 @@
         <v>6</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C256" t="s">
         <v>8</v>
@@ -5615,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
@@ -5635,7 +5638,7 @@
         <v>10</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C258" t="s">
         <v>8</v>
@@ -5655,7 +5658,7 @@
         <v>10</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C259" t="s">
         <v>8</v>
@@ -5675,7 +5678,7 @@
         <v>10</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -5695,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -5715,7 +5718,7 @@
         <v>10</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -5735,7 +5738,7 @@
         <v>10</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C263" t="s">
         <v>8</v>
@@ -5755,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C264" t="s">
         <v>8</v>
@@ -5775,7 +5778,7 @@
         <v>10</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C265" t="s">
         <v>8</v>
@@ -5795,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -5815,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
@@ -5835,7 +5838,7 @@
         <v>10</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
@@ -5855,7 +5858,7 @@
         <v>10</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
@@ -5875,7 +5878,7 @@
         <v>10</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C270" t="s">
         <v>8</v>
@@ -5895,7 +5898,7 @@
         <v>10</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -5915,7 +5918,7 @@
         <v>10</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -5935,7 +5938,7 @@
         <v>10</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -5955,7 +5958,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C274" t="s">
         <v>8</v>
@@ -5975,7 +5978,7 @@
         <v>10</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -5995,7 +5998,7 @@
         <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -6015,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C277" t="s">
         <v>8</v>
@@ -6035,7 +6038,7 @@
         <v>10</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C278" t="s">
         <v>8</v>
@@ -6055,7 +6058,7 @@
         <v>11</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
@@ -6075,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -6095,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
@@ -6115,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -6135,7 +6138,7 @@
         <v>11</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C283" t="s">
         <v>8</v>
@@ -6155,7 +6158,7 @@
         <v>11</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -6175,7 +6178,7 @@
         <v>11</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C285" t="s">
         <v>8</v>
@@ -6195,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -6215,7 +6218,7 @@
         <v>11</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C287" t="s">
         <v>8</v>
@@ -6235,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -6255,7 +6258,7 @@
         <v>11</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C289" t="s">
         <v>8</v>
@@ -6275,7 +6278,7 @@
         <v>11</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
@@ -6295,7 +6298,7 @@
         <v>11</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -6315,7 +6318,7 @@
         <v>11</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -6335,7 +6338,7 @@
         <v>11</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C293" t="s">
         <v>8</v>
@@ -6355,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C294" t="s">
         <v>8</v>
@@ -6375,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
@@ -6395,7 +6398,7 @@
         <v>11</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -6415,7 +6418,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C297" t="s">
         <v>8</v>
@@ -6435,7 +6438,7 @@
         <v>6</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -6455,7 +6458,7 @@
         <v>6</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C299" t="s">
         <v>8</v>
@@ -6475,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C300" t="s">
         <v>8</v>
@@ -6495,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C301" t="s">
         <v>8</v>
@@ -6515,7 +6518,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C302" t="s">
         <v>8</v>
@@ -6535,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C303" t="s">
         <v>8</v>
@@ -6555,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C304" t="s">
         <v>8</v>
@@ -6575,7 +6578,7 @@
         <v>6</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C305" t="s">
         <v>8</v>
@@ -6595,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C306" t="s">
         <v>8</v>
@@ -6615,7 +6618,7 @@
         <v>6</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C307" t="s">
         <v>8</v>
@@ -6635,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -6655,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C309" t="s">
         <v>8</v>
@@ -6675,7 +6678,7 @@
         <v>6</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -6695,7 +6698,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -6715,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C312" t="s">
         <v>8</v>
@@ -6735,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C313" t="s">
         <v>8</v>
@@ -6755,7 +6758,7 @@
         <v>6</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C314" t="s">
         <v>8</v>
@@ -6775,7 +6778,7 @@
         <v>6</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C315" t="s">
         <v>8</v>
@@ -6795,7 +6798,7 @@
         <v>6</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -6815,7 +6818,7 @@
         <v>10</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C317" t="s">
         <v>8</v>
@@ -6835,7 +6838,7 @@
         <v>10</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C318" t="s">
         <v>8</v>
@@ -6855,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C319" t="s">
         <v>8</v>
@@ -6875,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
@@ -6895,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -6915,7 +6918,7 @@
         <v>10</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -6935,7 +6938,7 @@
         <v>10</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C323" t="s">
         <v>8</v>
@@ -6955,7 +6958,7 @@
         <v>10</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -6975,7 +6978,7 @@
         <v>10</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -6995,7 +6998,7 @@
         <v>10</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C326" t="s">
         <v>8</v>
@@ -7015,7 +7018,7 @@
         <v>10</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C327" t="s">
         <v>8</v>
@@ -7035,7 +7038,7 @@
         <v>10</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C328" t="s">
         <v>8</v>
@@ -7055,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C329" t="s">
         <v>8</v>
@@ -7075,7 +7078,7 @@
         <v>10</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C330" t="s">
         <v>8</v>
@@ -7095,7 +7098,7 @@
         <v>10</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C331" t="s">
         <v>8</v>
@@ -7115,7 +7118,7 @@
         <v>10</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -7135,7 +7138,7 @@
         <v>10</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C333" t="s">
         <v>8</v>
@@ -7155,7 +7158,7 @@
         <v>10</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C334" t="s">
         <v>8</v>
@@ -8455,7 +8458,7 @@
         <v>10</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
@@ -8475,7 +8478,7 @@
         <v>10</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -8495,7 +8498,7 @@
         <v>10</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -8515,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -8535,7 +8538,7 @@
         <v>10</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -8555,7 +8558,7 @@
         <v>10</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -8575,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -8595,7 +8598,7 @@
         <v>10</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -8615,7 +8618,7 @@
         <v>10</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
@@ -8635,7 +8638,7 @@
         <v>10</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -8655,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -8675,7 +8678,7 @@
         <v>10</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -8695,7 +8698,7 @@
         <v>10</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -8715,7 +8718,7 @@
         <v>10</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -8735,7 +8738,7 @@
         <v>10</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -8755,7 +8758,7 @@
         <v>10</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -8775,7 +8778,7 @@
         <v>10</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -8795,7 +8798,7 @@
         <v>11</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
@@ -8815,7 +8818,7 @@
         <v>11</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -8835,7 +8838,7 @@
         <v>11</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
@@ -8855,7 +8858,7 @@
         <v>11</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -8875,7 +8878,7 @@
         <v>11</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -8895,7 +8898,7 @@
         <v>11</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
@@ -8915,7 +8918,7 @@
         <v>11</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
@@ -8935,7 +8938,7 @@
         <v>11</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
@@ -8955,7 +8958,7 @@
         <v>11</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
@@ -8975,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
@@ -8995,7 +8998,7 @@
         <v>11</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
@@ -9015,7 +9018,7 @@
         <v>11</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
@@ -9035,7 +9038,7 @@
         <v>11</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -9055,7 +9058,7 @@
         <v>11</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -9075,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -9095,7 +9098,7 @@
         <v>11</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
@@ -9115,7 +9118,7 @@
         <v>11</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
@@ -9135,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C433" t="s">
         <v>8</v>
@@ -9155,7 +9158,7 @@
         <v>11</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
@@ -9175,7 +9178,7 @@
         <v>11</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -9195,7 +9198,7 @@
         <v>11</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
@@ -9215,7 +9218,7 @@
         <v>11</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C437" t="s">
         <v>8</v>
@@ -9235,7 +9238,7 @@
         <v>6</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C438" t="s">
         <v>8</v>
@@ -9255,7 +9258,7 @@
         <v>6</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
@@ -9275,7 +9278,7 @@
         <v>6</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C440" t="s">
         <v>8</v>
@@ -9295,7 +9298,7 @@
         <v>6</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
@@ -9315,7 +9318,7 @@
         <v>6</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C442" t="s">
         <v>8</v>
@@ -9335,7 +9338,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C443" t="s">
         <v>8</v>
@@ -9355,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C444" t="s">
         <v>8</v>
@@ -9375,7 +9378,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -9395,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C446" t="s">
         <v>8</v>
@@ -9415,7 +9418,7 @@
         <v>6</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C447" t="s">
         <v>8</v>
@@ -9435,7 +9438,7 @@
         <v>6</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C448" t="s">
         <v>8</v>
@@ -9455,7 +9458,7 @@
         <v>6</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C449" t="s">
         <v>8</v>
@@ -9475,7 +9478,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C450" t="s">
         <v>8</v>
@@ -9495,7 +9498,7 @@
         <v>6</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C451" t="s">
         <v>8</v>
@@ -9515,7 +9518,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C452" t="s">
         <v>8</v>
@@ -9535,7 +9538,7 @@
         <v>6</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C453" t="s">
         <v>8</v>
@@ -9555,7 +9558,7 @@
         <v>6</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C454" t="s">
         <v>8</v>
@@ -9575,7 +9578,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
@@ -9595,7 +9598,7 @@
         <v>6</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
@@ -9615,7 +9618,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -9635,7 +9638,7 @@
         <v>6</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C458" t="s">
         <v>8</v>
@@ -9655,7 +9658,7 @@
         <v>6</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C459" t="s">
         <v>8</v>
@@ -9675,7 +9678,7 @@
         <v>6</v>
       </c>
       <c r="B460" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C460" t="s">
         <v>8</v>
@@ -9695,7 +9698,7 @@
         <v>6</v>
       </c>
       <c r="B461" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C461" t="s">
         <v>8</v>
@@ -9715,7 +9718,7 @@
         <v>6</v>
       </c>
       <c r="B462" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C462" t="s">
         <v>8</v>
@@ -9735,7 +9738,7 @@
         <v>6</v>
       </c>
       <c r="B463" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C463" t="s">
         <v>8</v>
@@ -9755,7 +9758,7 @@
         <v>6</v>
       </c>
       <c r="B464" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C464" t="s">
         <v>8</v>
@@ -9775,7 +9778,7 @@
         <v>6</v>
       </c>
       <c r="B465" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C465" t="s">
         <v>8</v>
@@ -9795,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="B466" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C466" t="s">
         <v>8</v>
@@ -9815,7 +9818,7 @@
         <v>6</v>
       </c>
       <c r="B467" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C467" t="s">
         <v>8</v>
@@ -9835,7 +9838,7 @@
         <v>6</v>
       </c>
       <c r="B468" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -9855,7 +9858,7 @@
         <v>6</v>
       </c>
       <c r="B469" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C469" t="s">
         <v>8</v>
@@ -9875,7 +9878,7 @@
         <v>6</v>
       </c>
       <c r="B470" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C470" t="s">
         <v>8</v>
@@ -9895,7 +9898,7 @@
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C471" t="s">
         <v>8</v>
@@ -9915,7 +9918,7 @@
         <v>6</v>
       </c>
       <c r="B472" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C472" t="s">
         <v>8</v>
@@ -9935,7 +9938,7 @@
         <v>6</v>
       </c>
       <c r="B473" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C473" t="s">
         <v>8</v>
@@ -9955,7 +9958,7 @@
         <v>6</v>
       </c>
       <c r="B474" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C474" t="s">
         <v>8</v>
@@ -9975,7 +9978,7 @@
         <v>6</v>
       </c>
       <c r="B475" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C475" t="s">
         <v>8</v>
@@ -9995,7 +9998,7 @@
         <v>6</v>
       </c>
       <c r="B476" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C476" t="s">
         <v>8</v>
@@ -10015,7 +10018,7 @@
         <v>6</v>
       </c>
       <c r="B477" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C477" t="s">
         <v>8</v>
@@ -10035,7 +10038,7 @@
         <v>6</v>
       </c>
       <c r="B478" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
@@ -10055,7 +10058,7 @@
         <v>6</v>
       </c>
       <c r="B479" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C479" t="s">
         <v>8</v>
@@ -10075,7 +10078,7 @@
         <v>6</v>
       </c>
       <c r="B480" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C480" t="s">
         <v>8</v>
@@ -10095,7 +10098,7 @@
         <v>6</v>
       </c>
       <c r="B481" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C481" t="s">
         <v>8</v>
@@ -10115,7 +10118,7 @@
         <v>6</v>
       </c>
       <c r="B482" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C482" t="s">
         <v>8</v>
@@ -10135,7 +10138,7 @@
         <v>6</v>
       </c>
       <c r="B483" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C483" t="s">
         <v>8</v>
@@ -10155,7 +10158,7 @@
         <v>6</v>
       </c>
       <c r="B484" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C484" t="s">
         <v>8</v>
@@ -10175,7 +10178,7 @@
         <v>10</v>
       </c>
       <c r="B485" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C485" t="s">
         <v>8</v>
@@ -10195,7 +10198,7 @@
         <v>10</v>
       </c>
       <c r="B486" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C486" t="s">
         <v>8</v>
@@ -10215,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="B487" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C487" t="s">
         <v>8</v>
@@ -10235,7 +10238,7 @@
         <v>10</v>
       </c>
       <c r="B488" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C488" t="s">
         <v>8</v>
@@ -10255,7 +10258,7 @@
         <v>10</v>
       </c>
       <c r="B489" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C489" t="s">
         <v>8</v>
@@ -10275,7 +10278,7 @@
         <v>10</v>
       </c>
       <c r="B490" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C490" t="s">
         <v>8</v>
@@ -10295,7 +10298,7 @@
         <v>10</v>
       </c>
       <c r="B491" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C491" t="s">
         <v>8</v>
@@ -10315,7 +10318,7 @@
         <v>10</v>
       </c>
       <c r="B492" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
@@ -10335,7 +10338,7 @@
         <v>10</v>
       </c>
       <c r="B493" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C493" t="s">
         <v>8</v>
@@ -10355,7 +10358,7 @@
         <v>10</v>
       </c>
       <c r="B494" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C494" t="s">
         <v>8</v>
@@ -10375,7 +10378,7 @@
         <v>10</v>
       </c>
       <c r="B495" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C495" t="s">
         <v>8</v>
@@ -10395,7 +10398,7 @@
         <v>10</v>
       </c>
       <c r="B496" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C496" t="s">
         <v>8</v>
@@ -10415,7 +10418,7 @@
         <v>10</v>
       </c>
       <c r="B497" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C497" t="s">
         <v>8</v>
@@ -10435,7 +10438,7 @@
         <v>10</v>
       </c>
       <c r="B498" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C498" t="s">
         <v>8</v>
@@ -10455,7 +10458,7 @@
         <v>10</v>
       </c>
       <c r="B499" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C499" t="s">
         <v>8</v>
@@ -10475,7 +10478,7 @@
         <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -10495,7 +10498,7 @@
         <v>10</v>
       </c>
       <c r="B501" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C501" t="s">
         <v>8</v>
@@ -10515,7 +10518,7 @@
         <v>11</v>
       </c>
       <c r="B502" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C502" t="s">
         <v>8</v>
@@ -10535,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="B503" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C503" t="s">
         <v>8</v>
@@ -10555,7 +10558,7 @@
         <v>11</v>
       </c>
       <c r="B504" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C504" t="s">
         <v>8</v>
@@ -10575,7 +10578,7 @@
         <v>11</v>
       </c>
       <c r="B505" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C505" t="s">
         <v>8</v>
@@ -10595,7 +10598,7 @@
         <v>11</v>
       </c>
       <c r="B506" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C506" t="s">
         <v>8</v>
@@ -10615,7 +10618,7 @@
         <v>11</v>
       </c>
       <c r="B507" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C507" t="s">
         <v>8</v>
@@ -10635,7 +10638,7 @@
         <v>11</v>
       </c>
       <c r="B508" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C508" t="s">
         <v>8</v>
@@ -10655,7 +10658,7 @@
         <v>11</v>
       </c>
       <c r="B509" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C509" t="s">
         <v>8</v>
@@ -10675,7 +10678,7 @@
         <v>11</v>
       </c>
       <c r="B510" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C510" t="s">
         <v>8</v>
@@ -10695,7 +10698,7 @@
         <v>11</v>
       </c>
       <c r="B511" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C511" t="s">
         <v>8</v>
@@ -10715,7 +10718,7 @@
         <v>11</v>
       </c>
       <c r="B512" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C512" t="s">
         <v>8</v>
@@ -10735,7 +10738,7 @@
         <v>11</v>
       </c>
       <c r="B513" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C513" t="s">
         <v>8</v>
@@ -10755,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="B514" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C514" t="s">
         <v>8</v>
@@ -10775,7 +10778,7 @@
         <v>11</v>
       </c>
       <c r="B515" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C515" t="s">
         <v>8</v>
@@ -10795,7 +10798,7 @@
         <v>11</v>
       </c>
       <c r="B516" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C516" t="s">
         <v>8</v>
@@ -10815,7 +10818,7 @@
         <v>11</v>
       </c>
       <c r="B517" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C517" t="s">
         <v>8</v>
@@ -10835,7 +10838,7 @@
         <v>11</v>
       </c>
       <c r="B518" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C518" t="s">
         <v>8</v>
@@ -10855,7 +10858,7 @@
         <v>11</v>
       </c>
       <c r="B519" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C519" t="s">
         <v>8</v>
@@ -10875,7 +10878,7 @@
         <v>11</v>
       </c>
       <c r="B520" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C520" t="s">
         <v>8</v>
@@ -10895,7 +10898,7 @@
         <v>11</v>
       </c>
       <c r="B521" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C521" t="s">
         <v>8</v>
@@ -10915,7 +10918,7 @@
         <v>11</v>
       </c>
       <c r="B522" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C522" t="s">
         <v>8</v>
@@ -10935,7 +10938,7 @@
         <v>11</v>
       </c>
       <c r="B523" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C523" t="s">
         <v>8</v>
@@ -10955,7 +10958,7 @@
         <v>11</v>
       </c>
       <c r="B524" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
@@ -10975,7 +10978,7 @@
         <v>11</v>
       </c>
       <c r="B525" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C525" t="s">
         <v>8</v>
@@ -10995,7 +10998,7 @@
         <v>11</v>
       </c>
       <c r="B526" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C526" t="s">
         <v>8</v>
@@ -11015,7 +11018,7 @@
         <v>11</v>
       </c>
       <c r="B527" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C527" t="s">
         <v>8</v>
@@ -11035,7 +11038,7 @@
         <v>11</v>
       </c>
       <c r="B528" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C528" t="s">
         <v>8</v>
@@ -11055,7 +11058,7 @@
         <v>11</v>
       </c>
       <c r="B529" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C529" t="s">
         <v>8</v>
@@ -11075,7 +11078,7 @@
         <v>11</v>
       </c>
       <c r="B530" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C530" t="s">
         <v>8</v>
@@ -11095,7 +11098,7 @@
         <v>11</v>
       </c>
       <c r="B531" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C531" t="s">
         <v>8</v>
@@ -11115,7 +11118,7 @@
         <v>11</v>
       </c>
       <c r="B532" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C532" t="s">
         <v>8</v>
@@ -11135,7 +11138,7 @@
         <v>11</v>
       </c>
       <c r="B533" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C533" t="s">
         <v>8</v>
@@ -11155,7 +11158,7 @@
         <v>11</v>
       </c>
       <c r="B534" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C534" t="s">
         <v>8</v>
@@ -11175,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="B535" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C535" t="s">
         <v>8</v>
@@ -11195,7 +11198,7 @@
         <v>11</v>
       </c>
       <c r="B536" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C536" t="s">
         <v>8</v>
@@ -11215,7 +11218,7 @@
         <v>11</v>
       </c>
       <c r="B537" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C537" t="s">
         <v>8</v>
@@ -11235,7 +11238,7 @@
         <v>11</v>
       </c>
       <c r="B538" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C538" t="s">
         <v>8</v>
@@ -11255,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="B539" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C539" t="s">
         <v>8</v>
@@ -11275,7 +11278,7 @@
         <v>6</v>
       </c>
       <c r="B540" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C540" t="s">
         <v>8</v>
@@ -11295,7 +11298,7 @@
         <v>6</v>
       </c>
       <c r="B541" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C541" t="s">
         <v>8</v>
@@ -11315,7 +11318,7 @@
         <v>6</v>
       </c>
       <c r="B542" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C542" t="s">
         <v>8</v>
@@ -11335,7 +11338,7 @@
         <v>6</v>
       </c>
       <c r="B543" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C543" t="s">
         <v>8</v>
@@ -11355,7 +11358,7 @@
         <v>6</v>
       </c>
       <c r="B544" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C544" t="s">
         <v>8</v>
@@ -11375,7 +11378,7 @@
         <v>6</v>
       </c>
       <c r="B545" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C545" t="s">
         <v>8</v>
@@ -11395,7 +11398,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C546" t="s">
         <v>8</v>
@@ -11415,7 +11418,7 @@
         <v>6</v>
       </c>
       <c r="B547" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C547" t="s">
         <v>8</v>
@@ -11435,7 +11438,7 @@
         <v>6</v>
       </c>
       <c r="B548" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C548" t="s">
         <v>8</v>
@@ -11455,7 +11458,7 @@
         <v>6</v>
       </c>
       <c r="B549" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C549" t="s">
         <v>8</v>
@@ -11475,7 +11478,7 @@
         <v>6</v>
       </c>
       <c r="B550" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C550" t="s">
         <v>8</v>
@@ -11495,7 +11498,7 @@
         <v>6</v>
       </c>
       <c r="B551" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C551" t="s">
         <v>8</v>
@@ -11515,7 +11518,7 @@
         <v>6</v>
       </c>
       <c r="B552" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C552" t="s">
         <v>8</v>
@@ -11535,7 +11538,7 @@
         <v>6</v>
       </c>
       <c r="B553" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C553" t="s">
         <v>8</v>
@@ -11555,7 +11558,7 @@
         <v>6</v>
       </c>
       <c r="B554" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C554" t="s">
         <v>8</v>
@@ -11575,7 +11578,7 @@
         <v>6</v>
       </c>
       <c r="B555" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C555" t="s">
         <v>8</v>
@@ -11595,7 +11598,7 @@
         <v>6</v>
       </c>
       <c r="B556" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C556" t="s">
         <v>8</v>
@@ -11615,7 +11618,7 @@
         <v>6</v>
       </c>
       <c r="B557" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C557" t="s">
         <v>8</v>
@@ -11635,7 +11638,7 @@
         <v>6</v>
       </c>
       <c r="B558" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C558" t="s">
         <v>8</v>
@@ -11655,7 +11658,7 @@
         <v>6</v>
       </c>
       <c r="B559" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C559" t="s">
         <v>8</v>
@@ -11675,7 +11678,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C560" t="s">
         <v>8</v>
@@ -11695,7 +11698,7 @@
         <v>6</v>
       </c>
       <c r="B561" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C561" t="s">
         <v>8</v>
@@ -11715,7 +11718,7 @@
         <v>6</v>
       </c>
       <c r="B562" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C562" t="s">
         <v>8</v>
@@ -11735,7 +11738,7 @@
         <v>10</v>
       </c>
       <c r="B563" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C563" t="s">
         <v>8</v>
@@ -11755,7 +11758,7 @@
         <v>10</v>
       </c>
       <c r="B564" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C564" t="s">
         <v>8</v>
@@ -11775,7 +11778,7 @@
         <v>10</v>
       </c>
       <c r="B565" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C565" t="s">
         <v>8</v>
@@ -11795,7 +11798,7 @@
         <v>10</v>
       </c>
       <c r="B566" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C566" t="s">
         <v>8</v>
@@ -11815,7 +11818,7 @@
         <v>10</v>
       </c>
       <c r="B567" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C567" t="s">
         <v>8</v>
@@ -11835,7 +11838,7 @@
         <v>10</v>
       </c>
       <c r="B568" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C568" t="s">
         <v>8</v>
@@ -11855,7 +11858,7 @@
         <v>10</v>
       </c>
       <c r="B569" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C569" t="s">
         <v>8</v>
@@ -11875,7 +11878,7 @@
         <v>10</v>
       </c>
       <c r="B570" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C570" t="s">
         <v>8</v>
@@ -11895,7 +11898,7 @@
         <v>10</v>
       </c>
       <c r="B571" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C571" t="s">
         <v>8</v>
@@ -11915,7 +11918,7 @@
         <v>10</v>
       </c>
       <c r="B572" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C572" t="s">
         <v>8</v>
@@ -11935,7 +11938,7 @@
         <v>10</v>
       </c>
       <c r="B573" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C573" t="s">
         <v>8</v>
@@ -11955,7 +11958,7 @@
         <v>10</v>
       </c>
       <c r="B574" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C574" t="s">
         <v>8</v>
@@ -11975,7 +11978,7 @@
         <v>10</v>
       </c>
       <c r="B575" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C575" t="s">
         <v>8</v>
@@ -11995,7 +11998,7 @@
         <v>10</v>
       </c>
       <c r="B576" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C576" t="s">
         <v>8</v>
@@ -12015,7 +12018,7 @@
         <v>10</v>
       </c>
       <c r="B577" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C577" t="s">
         <v>8</v>
@@ -12035,7 +12038,7 @@
         <v>10</v>
       </c>
       <c r="B578" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C578" t="s">
         <v>8</v>
@@ -12055,7 +12058,7 @@
         <v>10</v>
       </c>
       <c r="B579" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C579" t="s">
         <v>8</v>
@@ -12075,7 +12078,7 @@
         <v>10</v>
       </c>
       <c r="B580" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C580" t="s">
         <v>8</v>
@@ -12515,7 +12518,7 @@
         <v>10</v>
       </c>
       <c r="B602" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C602" t="s">
         <v>8</v>
@@ -12535,7 +12538,7 @@
         <v>10</v>
       </c>
       <c r="B603" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C603" t="s">
         <v>8</v>
@@ -12555,7 +12558,7 @@
         <v>10</v>
       </c>
       <c r="B604" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C604" t="s">
         <v>8</v>
@@ -12575,7 +12578,7 @@
         <v>10</v>
       </c>
       <c r="B605" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C605" t="s">
         <v>8</v>
@@ -12595,7 +12598,7 @@
         <v>10</v>
       </c>
       <c r="B606" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C606" t="s">
         <v>8</v>
@@ -12615,7 +12618,7 @@
         <v>10</v>
       </c>
       <c r="B607" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C607" t="s">
         <v>8</v>
@@ -12635,7 +12638,7 @@
         <v>10</v>
       </c>
       <c r="B608" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C608" t="s">
         <v>8</v>
@@ -12655,7 +12658,7 @@
         <v>10</v>
       </c>
       <c r="B609" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C609" t="s">
         <v>8</v>
@@ -12675,7 +12678,7 @@
         <v>10</v>
       </c>
       <c r="B610" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C610" t="s">
         <v>8</v>
@@ -12695,7 +12698,7 @@
         <v>10</v>
       </c>
       <c r="B611" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C611" t="s">
         <v>8</v>
@@ -12715,7 +12718,7 @@
         <v>10</v>
       </c>
       <c r="B612" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C612" t="s">
         <v>8</v>
@@ -12735,7 +12738,7 @@
         <v>10</v>
       </c>
       <c r="B613" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C613" t="s">
         <v>8</v>
@@ -12755,7 +12758,7 @@
         <v>10</v>
       </c>
       <c r="B614" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C614" t="s">
         <v>8</v>
@@ -12775,7 +12778,7 @@
         <v>10</v>
       </c>
       <c r="B615" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C615" t="s">
         <v>8</v>
@@ -12795,7 +12798,7 @@
         <v>10</v>
       </c>
       <c r="B616" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C616" t="s">
         <v>8</v>
@@ -12815,7 +12818,7 @@
         <v>10</v>
       </c>
       <c r="B617" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C617" t="s">
         <v>8</v>
@@ -12835,7 +12838,7 @@
         <v>10</v>
       </c>
       <c r="B618" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C618" t="s">
         <v>8</v>
@@ -12855,7 +12858,7 @@
         <v>10</v>
       </c>
       <c r="B619" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C619" t="s">
         <v>8</v>
@@ -12875,7 +12878,7 @@
         <v>10</v>
       </c>
       <c r="B620" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C620" t="s">
         <v>8</v>
@@ -12895,7 +12898,7 @@
         <v>10</v>
       </c>
       <c r="B621" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C621" t="s">
         <v>8</v>
@@ -12915,7 +12918,7 @@
         <v>10</v>
       </c>
       <c r="B622" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C622" t="s">
         <v>8</v>
@@ -12935,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="B623" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C623" t="s">
         <v>8</v>
@@ -12955,7 +12958,7 @@
         <v>10</v>
       </c>
       <c r="B624" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C624" t="s">
         <v>8</v>
@@ -12975,7 +12978,7 @@
         <v>10</v>
       </c>
       <c r="B625" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C625" t="s">
         <v>8</v>
@@ -12995,7 +12998,7 @@
         <v>10</v>
       </c>
       <c r="B626" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C626" t="s">
         <v>8</v>
@@ -13015,7 +13018,7 @@
         <v>10</v>
       </c>
       <c r="B627" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C627" t="s">
         <v>8</v>
@@ -13035,7 +13038,7 @@
         <v>10</v>
       </c>
       <c r="B628" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C628" t="s">
         <v>8</v>
@@ -13055,7 +13058,7 @@
         <v>10</v>
       </c>
       <c r="B629" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C629" t="s">
         <v>8</v>
@@ -13075,7 +13078,7 @@
         <v>10</v>
       </c>
       <c r="B630" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C630" t="s">
         <v>8</v>
@@ -13095,7 +13098,7 @@
         <v>10</v>
       </c>
       <c r="B631" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C631" t="s">
         <v>8</v>
@@ -13115,7 +13118,7 @@
         <v>10</v>
       </c>
       <c r="B632" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C632" t="s">
         <v>8</v>
@@ -13135,7 +13138,7 @@
         <v>10</v>
       </c>
       <c r="B633" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C633" t="s">
         <v>8</v>
@@ -13155,7 +13158,7 @@
         <v>10</v>
       </c>
       <c r="B634" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C634" t="s">
         <v>8</v>
@@ -13175,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="B635" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C635" t="s">
         <v>8</v>
@@ -13195,7 +13198,7 @@
         <v>10</v>
       </c>
       <c r="B636" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C636" t="s">
         <v>8</v>
@@ -13595,7 +13598,7 @@
         <v>10</v>
       </c>
       <c r="B656" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C656" t="s">
         <v>8</v>
@@ -13615,7 +13618,7 @@
         <v>10</v>
       </c>
       <c r="B657" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C657" t="s">
         <v>8</v>
@@ -13635,7 +13638,7 @@
         <v>10</v>
       </c>
       <c r="B658" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C658" t="s">
         <v>8</v>
@@ -13655,7 +13658,7 @@
         <v>10</v>
       </c>
       <c r="B659" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C659" t="s">
         <v>8</v>
@@ -13675,7 +13678,7 @@
         <v>10</v>
       </c>
       <c r="B660" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C660" t="s">
         <v>8</v>
@@ -13695,7 +13698,7 @@
         <v>10</v>
       </c>
       <c r="B661" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C661" t="s">
         <v>8</v>
@@ -13715,7 +13718,7 @@
         <v>10</v>
       </c>
       <c r="B662" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C662" t="s">
         <v>8</v>
@@ -13735,7 +13738,7 @@
         <v>10</v>
       </c>
       <c r="B663" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C663" t="s">
         <v>8</v>
@@ -13755,7 +13758,7 @@
         <v>10</v>
       </c>
       <c r="B664" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C664" t="s">
         <v>8</v>
@@ -13775,7 +13778,7 @@
         <v>10</v>
       </c>
       <c r="B665" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C665" t="s">
         <v>8</v>
@@ -13795,7 +13798,7 @@
         <v>10</v>
       </c>
       <c r="B666" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C666" t="s">
         <v>8</v>
@@ -13815,7 +13818,7 @@
         <v>10</v>
       </c>
       <c r="B667" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C667" t="s">
         <v>8</v>
@@ -13835,7 +13838,7 @@
         <v>10</v>
       </c>
       <c r="B668" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C668" t="s">
         <v>8</v>
@@ -13855,7 +13858,7 @@
         <v>10</v>
       </c>
       <c r="B669" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C669" t="s">
         <v>8</v>
@@ -13875,7 +13878,7 @@
         <v>10</v>
       </c>
       <c r="B670" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C670" t="s">
         <v>8</v>
@@ -13895,7 +13898,7 @@
         <v>10</v>
       </c>
       <c r="B671" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C671" t="s">
         <v>8</v>
@@ -13915,7 +13918,7 @@
         <v>10</v>
       </c>
       <c r="B672" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C672" t="s">
         <v>8</v>
@@ -13935,7 +13938,7 @@
         <v>10</v>
       </c>
       <c r="B673" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C673" t="s">
         <v>8</v>
@@ -13955,7 +13958,7 @@
         <v>10</v>
       </c>
       <c r="B674" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C674" t="s">
         <v>8</v>
@@ -13975,7 +13978,7 @@
         <v>10</v>
       </c>
       <c r="B675" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C675" t="s">
         <v>8</v>
@@ -13995,7 +13998,7 @@
         <v>10</v>
       </c>
       <c r="B676" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C676" t="s">
         <v>8</v>
@@ -14015,7 +14018,7 @@
         <v>10</v>
       </c>
       <c r="B677" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C677" t="s">
         <v>8</v>
@@ -14035,7 +14038,7 @@
         <v>10</v>
       </c>
       <c r="B678" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C678" t="s">
         <v>8</v>
@@ -14775,7 +14778,7 @@
         <v>10</v>
       </c>
       <c r="B715" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C715" t="s">
         <v>8</v>
@@ -14795,7 +14798,7 @@
         <v>10</v>
       </c>
       <c r="B716" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C716" t="s">
         <v>8</v>
@@ -14815,7 +14818,7 @@
         <v>10</v>
       </c>
       <c r="B717" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C717" t="s">
         <v>8</v>
@@ -14835,7 +14838,7 @@
         <v>10</v>
       </c>
       <c r="B718" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C718" t="s">
         <v>8</v>
@@ -14855,7 +14858,7 @@
         <v>10</v>
       </c>
       <c r="B719" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C719" t="s">
         <v>8</v>
@@ -14875,7 +14878,7 @@
         <v>10</v>
       </c>
       <c r="B720" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C720" t="s">
         <v>8</v>
@@ -14895,7 +14898,7 @@
         <v>10</v>
       </c>
       <c r="B721" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C721" t="s">
         <v>8</v>
@@ -14915,7 +14918,7 @@
         <v>10</v>
       </c>
       <c r="B722" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C722" t="s">
         <v>8</v>
@@ -14935,7 +14938,7 @@
         <v>10</v>
       </c>
       <c r="B723" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C723" t="s">
         <v>8</v>
@@ -14955,7 +14958,7 @@
         <v>10</v>
       </c>
       <c r="B724" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C724" t="s">
         <v>8</v>
@@ -14975,7 +14978,7 @@
         <v>10</v>
       </c>
       <c r="B725" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C725" t="s">
         <v>8</v>
@@ -14995,7 +14998,7 @@
         <v>10</v>
       </c>
       <c r="B726" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C726" t="s">
         <v>8</v>
@@ -15015,7 +15018,7 @@
         <v>10</v>
       </c>
       <c r="B727" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C727" t="s">
         <v>8</v>
@@ -15035,7 +15038,7 @@
         <v>10</v>
       </c>
       <c r="B728" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C728" t="s">
         <v>8</v>
@@ -15055,7 +15058,7 @@
         <v>10</v>
       </c>
       <c r="B729" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C729" t="s">
         <v>8</v>
@@ -15075,7 +15078,7 @@
         <v>10</v>
       </c>
       <c r="B730" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C730" t="s">
         <v>8</v>
@@ -15095,7 +15098,7 @@
         <v>10</v>
       </c>
       <c r="B731" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C731" t="s">
         <v>8</v>
@@ -15115,7 +15118,7 @@
         <v>10</v>
       </c>
       <c r="B732" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C732" t="s">
         <v>8</v>
@@ -15135,7 +15138,7 @@
         <v>10</v>
       </c>
       <c r="B733" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C733" t="s">
         <v>8</v>
@@ -15155,7 +15158,7 @@
         <v>10</v>
       </c>
       <c r="B734" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C734" t="s">
         <v>8</v>
@@ -15175,7 +15178,7 @@
         <v>10</v>
       </c>
       <c r="B735" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C735" t="s">
         <v>8</v>
@@ -15195,7 +15198,7 @@
         <v>10</v>
       </c>
       <c r="B736" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C736" t="s">
         <v>8</v>
@@ -15215,7 +15218,7 @@
         <v>10</v>
       </c>
       <c r="B737" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C737" t="s">
         <v>8</v>
@@ -15235,7 +15238,7 @@
         <v>10</v>
       </c>
       <c r="B738" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C738" t="s">
         <v>8</v>
@@ -15255,7 +15258,7 @@
         <v>10</v>
       </c>
       <c r="B739" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C739" t="s">
         <v>8</v>
@@ -15275,7 +15278,7 @@
         <v>10</v>
       </c>
       <c r="B740" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C740" t="s">
         <v>8</v>
@@ -15295,7 +15298,7 @@
         <v>10</v>
       </c>
       <c r="B741" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C741" t="s">
         <v>8</v>
@@ -15315,7 +15318,7 @@
         <v>10</v>
       </c>
       <c r="B742" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C742" t="s">
         <v>8</v>
@@ -15335,7 +15338,7 @@
         <v>10</v>
       </c>
       <c r="B743" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C743" t="s">
         <v>8</v>
@@ -15355,7 +15358,7 @@
         <v>10</v>
       </c>
       <c r="B744" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C744" t="s">
         <v>8</v>
@@ -15375,7 +15378,7 @@
         <v>10</v>
       </c>
       <c r="B745" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C745" t="s">
         <v>8</v>
@@ -15395,7 +15398,7 @@
         <v>10</v>
       </c>
       <c r="B746" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C746" t="s">
         <v>8</v>
@@ -15415,7 +15418,7 @@
         <v>10</v>
       </c>
       <c r="B747" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C747" t="s">
         <v>8</v>
@@ -15435,7 +15438,7 @@
         <v>10</v>
       </c>
       <c r="B748" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C748" t="s">
         <v>8</v>
@@ -15455,7 +15458,7 @@
         <v>10</v>
       </c>
       <c r="B749" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C749" t="s">
         <v>8</v>
@@ -15475,7 +15478,7 @@
         <v>10</v>
       </c>
       <c r="B750" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C750" t="s">
         <v>8</v>
@@ -15495,7 +15498,7 @@
         <v>10</v>
       </c>
       <c r="B751" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C751" t="s">
         <v>8</v>
@@ -15515,7 +15518,7 @@
         <v>10</v>
       </c>
       <c r="B752" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C752" t="s">
         <v>8</v>
@@ -15535,7 +15538,7 @@
         <v>10</v>
       </c>
       <c r="B753" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C753" t="s">
         <v>8</v>
@@ -15555,7 +15558,7 @@
         <v>10</v>
       </c>
       <c r="B754" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C754" t="s">
         <v>8</v>
@@ -15575,7 +15578,7 @@
         <v>10</v>
       </c>
       <c r="B755" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C755" t="s">
         <v>8</v>
@@ -15595,7 +15598,7 @@
         <v>10</v>
       </c>
       <c r="B756" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C756" t="s">
         <v>8</v>
@@ -15615,7 +15618,7 @@
         <v>10</v>
       </c>
       <c r="B757" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C757" t="s">
         <v>8</v>
@@ -15635,7 +15638,7 @@
         <v>10</v>
       </c>
       <c r="B758" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C758" t="s">
         <v>8</v>
@@ -15655,7 +15658,7 @@
         <v>10</v>
       </c>
       <c r="B759" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C759" t="s">
         <v>8</v>
@@ -15675,7 +15678,7 @@
         <v>10</v>
       </c>
       <c r="B760" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C760" t="s">
         <v>8</v>
@@ -15695,7 +15698,7 @@
         <v>10</v>
       </c>
       <c r="B761" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C761" t="s">
         <v>8</v>
@@ -15715,7 +15718,7 @@
         <v>10</v>
       </c>
       <c r="B762" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C762" t="s">
         <v>8</v>
@@ -15735,7 +15738,7 @@
         <v>10</v>
       </c>
       <c r="B763" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C763" t="s">
         <v>8</v>
@@ -15755,7 +15758,7 @@
         <v>10</v>
       </c>
       <c r="B764" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C764" t="s">
         <v>8</v>
@@ -15775,7 +15778,7 @@
         <v>10</v>
       </c>
       <c r="B765" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C765" t="s">
         <v>8</v>
@@ -15795,7 +15798,7 @@
         <v>10</v>
       </c>
       <c r="B766" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C766" t="s">
         <v>8</v>
@@ -15815,7 +15818,7 @@
         <v>10</v>
       </c>
       <c r="B767" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C767" t="s">
         <v>8</v>
@@ -15835,7 +15838,7 @@
         <v>10</v>
       </c>
       <c r="B768" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C768" t="s">
         <v>8</v>
@@ -15855,7 +15858,7 @@
         <v>10</v>
       </c>
       <c r="B769" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C769" t="s">
         <v>8</v>
@@ -15875,7 +15878,7 @@
         <v>10</v>
       </c>
       <c r="B770" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C770" t="s">
         <v>8</v>
@@ -15895,7 +15898,7 @@
         <v>10</v>
       </c>
       <c r="B771" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C771" t="s">
         <v>8</v>
@@ -15915,7 +15918,7 @@
         <v>10</v>
       </c>
       <c r="B772" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C772" t="s">
         <v>8</v>
@@ -15935,7 +15938,7 @@
         <v>10</v>
       </c>
       <c r="B773" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C773" t="s">
         <v>8</v>
@@ -15955,7 +15958,7 @@
         <v>10</v>
       </c>
       <c r="B774" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C774" t="s">
         <v>8</v>
@@ -15975,7 +15978,7 @@
         <v>10</v>
       </c>
       <c r="B775" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C775" t="s">
         <v>8</v>
@@ -15995,7 +15998,7 @@
         <v>10</v>
       </c>
       <c r="B776" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C776" t="s">
         <v>8</v>
@@ -16015,7 +16018,7 @@
         <v>10</v>
       </c>
       <c r="B777" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C777" t="s">
         <v>8</v>
@@ -16035,7 +16038,7 @@
         <v>10</v>
       </c>
       <c r="B778" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C778" t="s">
         <v>8</v>
@@ -16055,7 +16058,7 @@
         <v>10</v>
       </c>
       <c r="B779" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C779" t="s">
         <v>8</v>
@@ -16075,7 +16078,7 @@
         <v>10</v>
       </c>
       <c r="B780" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C780" t="s">
         <v>8</v>
@@ -16095,7 +16098,7 @@
         <v>10</v>
       </c>
       <c r="B781" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C781" t="s">
         <v>8</v>
@@ -16115,7 +16118,7 @@
         <v>10</v>
       </c>
       <c r="B782" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C782" t="s">
         <v>8</v>
@@ -16135,7 +16138,7 @@
         <v>10</v>
       </c>
       <c r="B783" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C783" t="s">
         <v>8</v>
@@ -16155,7 +16158,7 @@
         <v>10</v>
       </c>
       <c r="B784" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C784" t="s">
         <v>8</v>
@@ -16175,7 +16178,7 @@
         <v>10</v>
       </c>
       <c r="B785" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C785" t="s">
         <v>8</v>
@@ -16195,7 +16198,7 @@
         <v>10</v>
       </c>
       <c r="B786" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C786" t="s">
         <v>8</v>
@@ -16215,7 +16218,7 @@
         <v>10</v>
       </c>
       <c r="B787" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C787" t="s">
         <v>8</v>
@@ -16235,7 +16238,7 @@
         <v>10</v>
       </c>
       <c r="B788" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C788" t="s">
         <v>8</v>
@@ -16255,7 +16258,7 @@
         <v>10</v>
       </c>
       <c r="B789" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C789" t="s">
         <v>8</v>
@@ -16275,7 +16278,7 @@
         <v>10</v>
       </c>
       <c r="B790" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C790" t="s">
         <v>8</v>
@@ -16295,7 +16298,7 @@
         <v>10</v>
       </c>
       <c r="B791" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C791" t="s">
         <v>8</v>
@@ -16315,7 +16318,7 @@
         <v>10</v>
       </c>
       <c r="B792" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C792" t="s">
         <v>8</v>
@@ -16335,7 +16338,7 @@
         <v>10</v>
       </c>
       <c r="B793" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C793" t="s">
         <v>8</v>
@@ -16355,7 +16358,7 @@
         <v>10</v>
       </c>
       <c r="B794" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C794" t="s">
         <v>8</v>
@@ -16375,7 +16378,7 @@
         <v>10</v>
       </c>
       <c r="B795" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C795" t="s">
         <v>8</v>
@@ -16395,7 +16398,7 @@
         <v>10</v>
       </c>
       <c r="B796" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C796" t="s">
         <v>8</v>
@@ -16415,7 +16418,7 @@
         <v>10</v>
       </c>
       <c r="B797" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C797" t="s">
         <v>8</v>
@@ -16435,7 +16438,7 @@
         <v>10</v>
       </c>
       <c r="B798" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C798" t="s">
         <v>8</v>
@@ -16455,7 +16458,7 @@
         <v>10</v>
       </c>
       <c r="B799" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C799" t="s">
         <v>8</v>
@@ -16475,7 +16478,7 @@
         <v>6</v>
       </c>
       <c r="B800" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C800" t="s">
         <v>8</v>
@@ -16495,7 +16498,7 @@
         <v>6</v>
       </c>
       <c r="B801" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C801" t="s">
         <v>8</v>
@@ -16515,7 +16518,7 @@
         <v>6</v>
       </c>
       <c r="B802" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C802" t="s">
         <v>8</v>
@@ -16535,7 +16538,7 @@
         <v>6</v>
       </c>
       <c r="B803" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C803" t="s">
         <v>8</v>
@@ -16555,7 +16558,7 @@
         <v>6</v>
       </c>
       <c r="B804" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C804" t="s">
         <v>8</v>
@@ -16575,7 +16578,7 @@
         <v>6</v>
       </c>
       <c r="B805" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C805" t="s">
         <v>8</v>
@@ -16595,7 +16598,7 @@
         <v>6</v>
       </c>
       <c r="B806" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C806" t="s">
         <v>8</v>
@@ -16615,7 +16618,7 @@
         <v>6</v>
       </c>
       <c r="B807" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C807" t="s">
         <v>8</v>
@@ -16635,7 +16638,7 @@
         <v>6</v>
       </c>
       <c r="B808" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C808" t="s">
         <v>8</v>
@@ -16655,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="B809" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C809" t="s">
         <v>8</v>
@@ -16675,7 +16678,7 @@
         <v>6</v>
       </c>
       <c r="B810" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C810" t="s">
         <v>8</v>
@@ -16695,7 +16698,7 @@
         <v>6</v>
       </c>
       <c r="B811" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C811" t="s">
         <v>8</v>
@@ -16715,7 +16718,7 @@
         <v>6</v>
       </c>
       <c r="B812" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C812" t="s">
         <v>8</v>
@@ -16735,7 +16738,7 @@
         <v>6</v>
       </c>
       <c r="B813" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C813" t="s">
         <v>8</v>
@@ -16755,7 +16758,7 @@
         <v>6</v>
       </c>
       <c r="B814" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C814" t="s">
         <v>8</v>
@@ -16775,7 +16778,7 @@
         <v>6</v>
       </c>
       <c r="B815" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C815" t="s">
         <v>8</v>
@@ -16795,7 +16798,7 @@
         <v>6</v>
       </c>
       <c r="B816" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C816" t="s">
         <v>8</v>
@@ -16815,7 +16818,7 @@
         <v>6</v>
       </c>
       <c r="B817" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C817" t="s">
         <v>8</v>
@@ -16835,7 +16838,7 @@
         <v>6</v>
       </c>
       <c r="B818" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C818" t="s">
         <v>8</v>
@@ -16855,7 +16858,7 @@
         <v>6</v>
       </c>
       <c r="B819" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C819" t="s">
         <v>8</v>
@@ -16875,7 +16878,7 @@
         <v>6</v>
       </c>
       <c r="B820" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C820" t="s">
         <v>8</v>
@@ -16895,7 +16898,7 @@
         <v>11</v>
       </c>
       <c r="B821" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C821" t="s">
         <v>8</v>
@@ -16915,7 +16918,7 @@
         <v>11</v>
       </c>
       <c r="B822" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C822" t="s">
         <v>8</v>
@@ -16935,7 +16938,7 @@
         <v>11</v>
       </c>
       <c r="B823" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C823" t="s">
         <v>8</v>
@@ -16955,7 +16958,7 @@
         <v>11</v>
       </c>
       <c r="B824" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C824" t="s">
         <v>8</v>
@@ -16975,7 +16978,7 @@
         <v>11</v>
       </c>
       <c r="B825" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C825" t="s">
         <v>8</v>
@@ -16995,7 +16998,7 @@
         <v>11</v>
       </c>
       <c r="B826" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C826" t="s">
         <v>8</v>
@@ -17015,7 +17018,7 @@
         <v>11</v>
       </c>
       <c r="B827" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C827" t="s">
         <v>8</v>
@@ -17035,7 +17038,7 @@
         <v>11</v>
       </c>
       <c r="B828" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C828" t="s">
         <v>8</v>
@@ -17055,7 +17058,7 @@
         <v>11</v>
       </c>
       <c r="B829" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C829" t="s">
         <v>8</v>
@@ -17075,7 +17078,7 @@
         <v>11</v>
       </c>
       <c r="B830" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C830" t="s">
         <v>8</v>
@@ -17095,7 +17098,7 @@
         <v>11</v>
       </c>
       <c r="B831" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C831" t="s">
         <v>8</v>
@@ -17115,7 +17118,7 @@
         <v>11</v>
       </c>
       <c r="B832" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C832" t="s">
         <v>8</v>
@@ -17135,7 +17138,7 @@
         <v>11</v>
       </c>
       <c r="B833" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C833" t="s">
         <v>8</v>
@@ -17155,7 +17158,7 @@
         <v>11</v>
       </c>
       <c r="B834" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C834" t="s">
         <v>8</v>
@@ -17175,7 +17178,7 @@
         <v>11</v>
       </c>
       <c r="B835" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C835" t="s">
         <v>8</v>
@@ -17195,7 +17198,7 @@
         <v>11</v>
       </c>
       <c r="B836" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C836" t="s">
         <v>8</v>
@@ -17215,7 +17218,7 @@
         <v>11</v>
       </c>
       <c r="B837" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C837" t="s">
         <v>8</v>
@@ -17235,7 +17238,7 @@
         <v>11</v>
       </c>
       <c r="B838" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C838" t="s">
         <v>8</v>
@@ -17255,7 +17258,7 @@
         <v>11</v>
       </c>
       <c r="B839" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C839" t="s">
         <v>8</v>
@@ -17275,7 +17278,7 @@
         <v>11</v>
       </c>
       <c r="B840" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C840" t="s">
         <v>8</v>
@@ -17295,7 +17298,7 @@
         <v>11</v>
       </c>
       <c r="B841" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C841" t="s">
         <v>8</v>
@@ -17315,7 +17318,7 @@
         <v>11</v>
       </c>
       <c r="B842" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C842" t="s">
         <v>8</v>
@@ -17335,7 +17338,7 @@
         <v>11</v>
       </c>
       <c r="B843" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C843" t="s">
         <v>8</v>
@@ -17355,7 +17358,7 @@
         <v>11</v>
       </c>
       <c r="B844" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C844" t="s">
         <v>8</v>
@@ -17375,7 +17378,7 @@
         <v>11</v>
       </c>
       <c r="B845" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C845" t="s">
         <v>8</v>
@@ -17395,7 +17398,7 @@
         <v>11</v>
       </c>
       <c r="B846" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C846" t="s">
         <v>8</v>
@@ -17415,7 +17418,7 @@
         <v>11</v>
       </c>
       <c r="B847" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C847" t="s">
         <v>8</v>
@@ -17435,7 +17438,7 @@
         <v>11</v>
       </c>
       <c r="B848" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C848" t="s">
         <v>8</v>
@@ -17455,7 +17458,7 @@
         <v>11</v>
       </c>
       <c r="B849" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C849" t="s">
         <v>8</v>
@@ -17475,7 +17478,7 @@
         <v>11</v>
       </c>
       <c r="B850" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C850" t="s">
         <v>8</v>
@@ -17495,7 +17498,7 @@
         <v>11</v>
       </c>
       <c r="B851" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C851" t="s">
         <v>8</v>
@@ -17515,7 +17518,7 @@
         <v>11</v>
       </c>
       <c r="B852" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C852" t="s">
         <v>8</v>
@@ -17535,7 +17538,7 @@
         <v>11</v>
       </c>
       <c r="B853" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C853" t="s">
         <v>8</v>
@@ -17555,7 +17558,7 @@
         <v>11</v>
       </c>
       <c r="B854" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C854" t="s">
         <v>8</v>
@@ -17575,7 +17578,7 @@
         <v>11</v>
       </c>
       <c r="B855" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C855" t="s">
         <v>8</v>
@@ -17595,7 +17598,7 @@
         <v>11</v>
       </c>
       <c r="B856" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C856" t="s">
         <v>8</v>
@@ -17615,7 +17618,7 @@
         <v>11</v>
       </c>
       <c r="B857" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C857" t="s">
         <v>8</v>
@@ -17635,7 +17638,7 @@
         <v>6</v>
       </c>
       <c r="B858" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C858" t="s">
         <v>8</v>
@@ -17655,7 +17658,7 @@
         <v>6</v>
       </c>
       <c r="B859" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C859" t="s">
         <v>8</v>
@@ -17675,7 +17678,7 @@
         <v>6</v>
       </c>
       <c r="B860" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C860" t="s">
         <v>8</v>
@@ -17695,7 +17698,7 @@
         <v>6</v>
       </c>
       <c r="B861" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C861" t="s">
         <v>8</v>
@@ -17715,7 +17718,7 @@
         <v>6</v>
       </c>
       <c r="B862" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C862" t="s">
         <v>8</v>
@@ -17735,7 +17738,7 @@
         <v>6</v>
       </c>
       <c r="B863" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C863" t="s">
         <v>8</v>
@@ -17755,7 +17758,7 @@
         <v>6</v>
       </c>
       <c r="B864" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C864" t="s">
         <v>8</v>
@@ -17775,7 +17778,7 @@
         <v>6</v>
       </c>
       <c r="B865" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C865" t="s">
         <v>8</v>
@@ -17795,7 +17798,7 @@
         <v>6</v>
       </c>
       <c r="B866" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C866" t="s">
         <v>8</v>
@@ -17815,7 +17818,7 @@
         <v>6</v>
       </c>
       <c r="B867" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C867" t="s">
         <v>8</v>
@@ -17835,7 +17838,7 @@
         <v>6</v>
       </c>
       <c r="B868" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C868" t="s">
         <v>8</v>
@@ -17855,7 +17858,7 @@
         <v>6</v>
       </c>
       <c r="B869" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C869" t="s">
         <v>8</v>
@@ -17875,7 +17878,7 @@
         <v>6</v>
       </c>
       <c r="B870" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C870" t="s">
         <v>8</v>
@@ -17895,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="B871" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C871" t="s">
         <v>8</v>
@@ -17915,7 +17918,7 @@
         <v>6</v>
       </c>
       <c r="B872" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C872" t="s">
         <v>8</v>
@@ -17935,7 +17938,7 @@
         <v>6</v>
       </c>
       <c r="B873" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C873" t="s">
         <v>8</v>
@@ -17955,7 +17958,7 @@
         <v>11</v>
       </c>
       <c r="B874" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C874" t="s">
         <v>8</v>
@@ -17975,7 +17978,7 @@
         <v>11</v>
       </c>
       <c r="B875" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C875" t="s">
         <v>8</v>
@@ -17995,7 +17998,7 @@
         <v>11</v>
       </c>
       <c r="B876" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C876" t="s">
         <v>8</v>
@@ -18015,7 +18018,7 @@
         <v>11</v>
       </c>
       <c r="B877" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C877" t="s">
         <v>8</v>
@@ -18035,7 +18038,7 @@
         <v>11</v>
       </c>
       <c r="B878" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C878" t="s">
         <v>8</v>
@@ -18055,7 +18058,7 @@
         <v>11</v>
       </c>
       <c r="B879" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C879" t="s">
         <v>8</v>
@@ -18075,7 +18078,7 @@
         <v>11</v>
       </c>
       <c r="B880" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C880" t="s">
         <v>8</v>
@@ -18095,7 +18098,7 @@
         <v>11</v>
       </c>
       <c r="B881" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C881" t="s">
         <v>8</v>
@@ -18115,7 +18118,7 @@
         <v>11</v>
       </c>
       <c r="B882" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C882" t="s">
         <v>8</v>
@@ -18135,7 +18138,7 @@
         <v>11</v>
       </c>
       <c r="B883" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C883" t="s">
         <v>8</v>
@@ -18155,7 +18158,7 @@
         <v>11</v>
       </c>
       <c r="B884" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C884" t="s">
         <v>8</v>
@@ -18175,7 +18178,7 @@
         <v>11</v>
       </c>
       <c r="B885" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C885" t="s">
         <v>8</v>
@@ -18195,7 +18198,7 @@
         <v>11</v>
       </c>
       <c r="B886" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C886" t="s">
         <v>8</v>
@@ -18215,7 +18218,7 @@
         <v>11</v>
       </c>
       <c r="B887" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C887" t="s">
         <v>8</v>
@@ -18235,7 +18238,7 @@
         <v>11</v>
       </c>
       <c r="B888" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C888" t="s">
         <v>8</v>
@@ -18255,7 +18258,7 @@
         <v>11</v>
       </c>
       <c r="B889" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C889" t="s">
         <v>8</v>
@@ -18275,7 +18278,7 @@
         <v>11</v>
       </c>
       <c r="B890" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C890" t="s">
         <v>8</v>
@@ -18295,7 +18298,7 @@
         <v>11</v>
       </c>
       <c r="B891" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C891" t="s">
         <v>8</v>
@@ -18315,7 +18318,7 @@
         <v>6</v>
       </c>
       <c r="B892" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C892" t="s">
         <v>8</v>
@@ -18335,7 +18338,7 @@
         <v>6</v>
       </c>
       <c r="B893" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C893" t="s">
         <v>8</v>
@@ -18355,7 +18358,7 @@
         <v>6</v>
       </c>
       <c r="B894" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C894" t="s">
         <v>8</v>
@@ -18375,7 +18378,7 @@
         <v>6</v>
       </c>
       <c r="B895" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C895" t="s">
         <v>8</v>
@@ -18395,7 +18398,7 @@
         <v>6</v>
       </c>
       <c r="B896" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C896" t="s">
         <v>8</v>
@@ -18415,7 +18418,7 @@
         <v>6</v>
       </c>
       <c r="B897" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C897" t="s">
         <v>8</v>
@@ -18435,7 +18438,7 @@
         <v>6</v>
       </c>
       <c r="B898" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C898" t="s">
         <v>8</v>
@@ -18455,7 +18458,7 @@
         <v>6</v>
       </c>
       <c r="B899" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C899" t="s">
         <v>8</v>
@@ -18475,7 +18478,7 @@
         <v>6</v>
       </c>
       <c r="B900" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C900" t="s">
         <v>8</v>
@@ -18495,7 +18498,7 @@
         <v>6</v>
       </c>
       <c r="B901" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C901" t="s">
         <v>8</v>
@@ -18515,7 +18518,7 @@
         <v>6</v>
       </c>
       <c r="B902" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C902" t="s">
         <v>8</v>
@@ -18535,7 +18538,7 @@
         <v>6</v>
       </c>
       <c r="B903" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C903" t="s">
         <v>8</v>
@@ -18555,7 +18558,7 @@
         <v>6</v>
       </c>
       <c r="B904" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C904" t="s">
         <v>8</v>
@@ -18575,7 +18578,7 @@
         <v>6</v>
       </c>
       <c r="B905" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C905" t="s">
         <v>8</v>
@@ -18595,7 +18598,7 @@
         <v>6</v>
       </c>
       <c r="B906" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C906" t="s">
         <v>8</v>
@@ -18615,7 +18618,7 @@
         <v>6</v>
       </c>
       <c r="B907" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C907" t="s">
         <v>8</v>
@@ -18635,7 +18638,7 @@
         <v>6</v>
       </c>
       <c r="B908" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C908" t="s">
         <v>8</v>
@@ -18655,7 +18658,7 @@
         <v>6</v>
       </c>
       <c r="B909" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C909" t="s">
         <v>8</v>
@@ -18675,7 +18678,7 @@
         <v>6</v>
       </c>
       <c r="B910" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C910" t="s">
         <v>8</v>
@@ -18695,7 +18698,7 @@
         <v>6</v>
       </c>
       <c r="B911" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C911" t="s">
         <v>8</v>
@@ -18715,7 +18718,7 @@
         <v>6</v>
       </c>
       <c r="B912" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C912" t="s">
         <v>8</v>
@@ -18735,7 +18738,7 @@
         <v>6</v>
       </c>
       <c r="B913" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C913" t="s">
         <v>8</v>
@@ -20595,7 +20598,7 @@
         <v>11</v>
       </c>
       <c r="B1006" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1006" t="s">
         <v>8</v>
@@ -20615,7 +20618,7 @@
         <v>11</v>
       </c>
       <c r="B1007" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1007" t="s">
         <v>8</v>
@@ -20635,7 +20638,7 @@
         <v>11</v>
       </c>
       <c r="B1008" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1008" t="s">
         <v>8</v>
@@ -20655,7 +20658,7 @@
         <v>11</v>
       </c>
       <c r="B1009" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1009" t="s">
         <v>8</v>
@@ -20675,7 +20678,7 @@
         <v>11</v>
       </c>
       <c r="B1010" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1010" t="s">
         <v>8</v>
@@ -20695,7 +20698,7 @@
         <v>11</v>
       </c>
       <c r="B1011" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1011" t="s">
         <v>8</v>
@@ -20715,7 +20718,7 @@
         <v>11</v>
       </c>
       <c r="B1012" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1012" t="s">
         <v>8</v>
@@ -20735,7 +20738,7 @@
         <v>11</v>
       </c>
       <c r="B1013" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1013" t="s">
         <v>8</v>
@@ -20755,7 +20758,7 @@
         <v>11</v>
       </c>
       <c r="B1014" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1014" t="s">
         <v>8</v>
@@ -20775,7 +20778,7 @@
         <v>11</v>
       </c>
       <c r="B1015" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1015" t="s">
         <v>8</v>
@@ -20795,7 +20798,7 @@
         <v>11</v>
       </c>
       <c r="B1016" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1016" t="s">
         <v>8</v>
@@ -20815,7 +20818,7 @@
         <v>11</v>
       </c>
       <c r="B1017" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1017" t="s">
         <v>8</v>
@@ -20835,7 +20838,7 @@
         <v>11</v>
       </c>
       <c r="B1018" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1018" t="s">
         <v>8</v>
@@ -20855,7 +20858,7 @@
         <v>11</v>
       </c>
       <c r="B1019" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1019" t="s">
         <v>8</v>
@@ -20875,7 +20878,7 @@
         <v>11</v>
       </c>
       <c r="B1020" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1020" t="s">
         <v>8</v>
@@ -20895,7 +20898,7 @@
         <v>11</v>
       </c>
       <c r="B1021" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1021" t="s">
         <v>8</v>
@@ -20915,7 +20918,7 @@
         <v>11</v>
       </c>
       <c r="B1022" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1022" t="s">
         <v>8</v>
@@ -20935,7 +20938,7 @@
         <v>11</v>
       </c>
       <c r="B1023" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1023" t="s">
         <v>8</v>
@@ -20955,7 +20958,7 @@
         <v>11</v>
       </c>
       <c r="B1024" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1024" t="s">
         <v>8</v>
@@ -20975,7 +20978,7 @@
         <v>11</v>
       </c>
       <c r="B1025" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1025" t="s">
         <v>8</v>
@@ -20995,7 +20998,7 @@
         <v>11</v>
       </c>
       <c r="B1026" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1026" t="s">
         <v>8</v>
@@ -21015,7 +21018,7 @@
         <v>11</v>
       </c>
       <c r="B1027" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1027" t="s">
         <v>8</v>
@@ -21035,7 +21038,7 @@
         <v>11</v>
       </c>
       <c r="B1028" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1028" t="s">
         <v>8</v>
@@ -21055,7 +21058,7 @@
         <v>6</v>
       </c>
       <c r="B1029" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1029" t="s">
         <v>8</v>
@@ -21075,7 +21078,7 @@
         <v>6</v>
       </c>
       <c r="B1030" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1030" t="s">
         <v>8</v>
@@ -21095,7 +21098,7 @@
         <v>6</v>
       </c>
       <c r="B1031" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1031" t="s">
         <v>8</v>
@@ -21115,7 +21118,7 @@
         <v>6</v>
       </c>
       <c r="B1032" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1032" t="s">
         <v>8</v>
@@ -21135,7 +21138,7 @@
         <v>6</v>
       </c>
       <c r="B1033" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1033" t="s">
         <v>8</v>
@@ -21155,7 +21158,7 @@
         <v>6</v>
       </c>
       <c r="B1034" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1034" t="s">
         <v>8</v>
@@ -21175,7 +21178,7 @@
         <v>6</v>
       </c>
       <c r="B1035" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1035" t="s">
         <v>8</v>
@@ -21195,7 +21198,7 @@
         <v>6</v>
       </c>
       <c r="B1036" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1036" t="s">
         <v>8</v>
@@ -21215,7 +21218,7 @@
         <v>6</v>
       </c>
       <c r="B1037" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1037" t="s">
         <v>8</v>
@@ -21235,7 +21238,7 @@
         <v>6</v>
       </c>
       <c r="B1038" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1038" t="s">
         <v>8</v>
@@ -21255,7 +21258,7 @@
         <v>6</v>
       </c>
       <c r="B1039" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1039" t="s">
         <v>8</v>
@@ -21275,7 +21278,7 @@
         <v>6</v>
       </c>
       <c r="B1040" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1040" t="s">
         <v>8</v>
@@ -21295,7 +21298,7 @@
         <v>6</v>
       </c>
       <c r="B1041" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1041" t="s">
         <v>8</v>
@@ -21315,7 +21318,7 @@
         <v>6</v>
       </c>
       <c r="B1042" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1042" t="s">
         <v>8</v>
@@ -21335,7 +21338,7 @@
         <v>6</v>
       </c>
       <c r="B1043" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1043" t="s">
         <v>8</v>
@@ -21355,7 +21358,7 @@
         <v>6</v>
       </c>
       <c r="B1044" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1044" t="s">
         <v>8</v>
@@ -21375,7 +21378,7 @@
         <v>6</v>
       </c>
       <c r="B1045" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1045" t="s">
         <v>8</v>
@@ -21395,7 +21398,7 @@
         <v>6</v>
       </c>
       <c r="B1046" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1046" t="s">
         <v>8</v>
@@ -21415,7 +21418,7 @@
         <v>10</v>
       </c>
       <c r="B1047" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1047" t="s">
         <v>8</v>
@@ -21435,7 +21438,7 @@
         <v>10</v>
       </c>
       <c r="B1048" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1048" t="s">
         <v>8</v>
@@ -21455,7 +21458,7 @@
         <v>10</v>
       </c>
       <c r="B1049" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1049" t="s">
         <v>8</v>
@@ -21475,7 +21478,7 @@
         <v>10</v>
       </c>
       <c r="B1050" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1050" t="s">
         <v>8</v>
@@ -21495,7 +21498,7 @@
         <v>10</v>
       </c>
       <c r="B1051" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1051" t="s">
         <v>8</v>
@@ -21515,7 +21518,7 @@
         <v>10</v>
       </c>
       <c r="B1052" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1052" t="s">
         <v>8</v>
@@ -21535,7 +21538,7 @@
         <v>10</v>
       </c>
       <c r="B1053" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1053" t="s">
         <v>8</v>
@@ -21555,7 +21558,7 @@
         <v>10</v>
       </c>
       <c r="B1054" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1054" t="s">
         <v>8</v>
@@ -21575,7 +21578,7 @@
         <v>10</v>
       </c>
       <c r="B1055" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1055" t="s">
         <v>8</v>
@@ -21595,7 +21598,7 @@
         <v>10</v>
       </c>
       <c r="B1056" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1056" t="s">
         <v>8</v>
@@ -21615,7 +21618,7 @@
         <v>10</v>
       </c>
       <c r="B1057" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1057" t="s">
         <v>8</v>
@@ -21635,7 +21638,7 @@
         <v>10</v>
       </c>
       <c r="B1058" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1058" t="s">
         <v>8</v>
@@ -21655,7 +21658,7 @@
         <v>10</v>
       </c>
       <c r="B1059" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1059" t="s">
         <v>8</v>
@@ -21675,7 +21678,7 @@
         <v>10</v>
       </c>
       <c r="B1060" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1060" t="s">
         <v>8</v>
@@ -21695,7 +21698,7 @@
         <v>10</v>
       </c>
       <c r="B1061" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1061" t="s">
         <v>8</v>
@@ -21715,7 +21718,7 @@
         <v>10</v>
       </c>
       <c r="B1062" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1062" t="s">
         <v>8</v>
@@ -21735,7 +21738,7 @@
         <v>10</v>
       </c>
       <c r="B1063" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1063" t="s">
         <v>8</v>
@@ -21755,7 +21758,7 @@
         <v>10</v>
       </c>
       <c r="B1064" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1064" t="s">
         <v>8</v>
@@ -21775,7 +21778,7 @@
         <v>10</v>
       </c>
       <c r="B1065" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1065" t="s">
         <v>8</v>
@@ -21795,7 +21798,7 @@
         <v>10</v>
       </c>
       <c r="B1066" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1066" t="s">
         <v>8</v>
@@ -21815,7 +21818,7 @@
         <v>10</v>
       </c>
       <c r="B1067" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1067" t="s">
         <v>8</v>
@@ -21835,7 +21838,7 @@
         <v>10</v>
       </c>
       <c r="B1068" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1068" t="s">
         <v>8</v>
@@ -21855,7 +21858,7 @@
         <v>10</v>
       </c>
       <c r="B1069" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1069" t="s">
         <v>8</v>
@@ -21875,7 +21878,7 @@
         <v>10</v>
       </c>
       <c r="B1070" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1070" t="s">
         <v>8</v>
@@ -21895,7 +21898,7 @@
         <v>10</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1071" t="s">
         <v>8</v>
@@ -21915,7 +21918,7 @@
         <v>10</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1072" t="s">
         <v>8</v>
@@ -21935,7 +21938,7 @@
         <v>10</v>
       </c>
       <c r="B1073" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1073" t="s">
         <v>8</v>
@@ -21955,7 +21958,7 @@
         <v>10</v>
       </c>
       <c r="B1074" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1074" t="s">
         <v>8</v>
@@ -21975,7 +21978,7 @@
         <v>10</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1075" t="s">
         <v>8</v>
@@ -21995,7 +21998,7 @@
         <v>10</v>
       </c>
       <c r="B1076" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1076" t="s">
         <v>8</v>
@@ -22015,7 +22018,7 @@
         <v>10</v>
       </c>
       <c r="B1077" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1077" t="s">
         <v>8</v>
@@ -22035,7 +22038,7 @@
         <v>10</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1078" t="s">
         <v>8</v>
@@ -22055,7 +22058,7 @@
         <v>10</v>
       </c>
       <c r="B1079" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1079" t="s">
         <v>8</v>
@@ -22075,7 +22078,7 @@
         <v>10</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1080" t="s">
         <v>8</v>
@@ -22095,7 +22098,7 @@
         <v>10</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1081" t="s">
         <v>8</v>
@@ -22115,7 +22118,7 @@
         <v>10</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1082" t="s">
         <v>8</v>
@@ -22135,7 +22138,7 @@
         <v>10</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1083" t="s">
         <v>8</v>
@@ -22155,7 +22158,7 @@
         <v>10</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1084" t="s">
         <v>8</v>
@@ -22175,7 +22178,7 @@
         <v>10</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1085" t="s">
         <v>8</v>
@@ -22195,7 +22198,7 @@
         <v>10</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1086" t="s">
         <v>8</v>
@@ -22215,7 +22218,7 @@
         <v>10</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1087" t="s">
         <v>8</v>
@@ -22235,7 +22238,7 @@
         <v>6</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1088" t="s">
         <v>8</v>
@@ -22255,7 +22258,7 @@
         <v>6</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1089" t="s">
         <v>8</v>
@@ -22275,7 +22278,7 @@
         <v>6</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1090" t="s">
         <v>8</v>
@@ -22295,7 +22298,7 @@
         <v>6</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1091" t="s">
         <v>8</v>
@@ -22315,7 +22318,7 @@
         <v>6</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1092" t="s">
         <v>8</v>
@@ -22335,7 +22338,7 @@
         <v>6</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1093" t="s">
         <v>8</v>
@@ -22355,7 +22358,7 @@
         <v>6</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1094" t="s">
         <v>8</v>
@@ -22375,7 +22378,7 @@
         <v>6</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1095" t="s">
         <v>8</v>
@@ -22395,7 +22398,7 @@
         <v>6</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1096" t="s">
         <v>8</v>
@@ -22415,7 +22418,7 @@
         <v>6</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1097" t="s">
         <v>8</v>
@@ -22435,7 +22438,7 @@
         <v>6</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1098" t="s">
         <v>8</v>
@@ -22455,7 +22458,7 @@
         <v>6</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1099" t="s">
         <v>8</v>
@@ -22475,7 +22478,7 @@
         <v>6</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1100" t="s">
         <v>8</v>
@@ -22495,7 +22498,7 @@
         <v>6</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1101" t="s">
         <v>8</v>
@@ -22515,7 +22518,7 @@
         <v>6</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1102" t="s">
         <v>8</v>
@@ -22535,7 +22538,7 @@
         <v>6</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1103" t="s">
         <v>8</v>
@@ -22555,7 +22558,7 @@
         <v>6</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1104" t="s">
         <v>8</v>
@@ -22575,7 +22578,7 @@
         <v>6</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1105" t="s">
         <v>8</v>
@@ -22595,7 +22598,7 @@
         <v>6</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1106" t="s">
         <v>8</v>
@@ -22615,7 +22618,7 @@
         <v>11</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1107" t="s">
         <v>8</v>
@@ -22635,7 +22638,7 @@
         <v>11</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1108" t="s">
         <v>8</v>
@@ -22655,7 +22658,7 @@
         <v>11</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1109" t="s">
         <v>8</v>
@@ -22675,7 +22678,7 @@
         <v>11</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1110" t="s">
         <v>8</v>
@@ -22695,7 +22698,7 @@
         <v>11</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1111" t="s">
         <v>8</v>
@@ -22715,7 +22718,7 @@
         <v>11</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1112" t="s">
         <v>8</v>
@@ -22735,7 +22738,7 @@
         <v>11</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1113" t="s">
         <v>8</v>
@@ -22755,7 +22758,7 @@
         <v>11</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1114" t="s">
         <v>8</v>
@@ -22775,7 +22778,7 @@
         <v>11</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1115" t="s">
         <v>8</v>
@@ -22795,7 +22798,7 @@
         <v>11</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1116" t="s">
         <v>8</v>
@@ -22815,7 +22818,7 @@
         <v>11</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1117" t="s">
         <v>8</v>
@@ -22835,7 +22838,7 @@
         <v>11</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1118" t="s">
         <v>8</v>
@@ -22855,7 +22858,7 @@
         <v>11</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1119" t="s">
         <v>8</v>
@@ -22875,7 +22878,7 @@
         <v>11</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1120" t="s">
         <v>8</v>
@@ -22895,7 +22898,7 @@
         <v>11</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1121" t="s">
         <v>8</v>
@@ -22915,7 +22918,7 @@
         <v>11</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1122" t="s">
         <v>8</v>
@@ -22935,7 +22938,7 @@
         <v>11</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1123" t="s">
         <v>8</v>
@@ -22955,7 +22958,7 @@
         <v>11</v>
       </c>
       <c r="B1124" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1124" t="s">
         <v>8</v>
@@ -22975,7 +22978,7 @@
         <v>11</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1125" t="s">
         <v>8</v>
@@ -22995,7 +22998,7 @@
         <v>11</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1126" t="s">
         <v>8</v>
@@ -23015,7 +23018,7 @@
         <v>11</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1127" t="s">
         <v>8</v>
@@ -23028,6 +23031,2346 @@
       </c>
       <c r="F1127" s="1">
         <v>45396</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1128">
+        <v>6.45</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1129">
+        <v>3.21</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1130">
+        <v>8.14</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1131">
+        <v>6.68</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1132">
+        <v>9.83</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1133">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1134">
+        <v>10.5</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1135">
+        <v>13.09</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1136">
+        <v>18.97</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1137">
+        <v>3.14</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1138">
+        <v>2.95</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1139">
+        <v>3.58</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1140">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1140" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1141">
+        <v>7.8</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1141" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1142">
+        <v>7.35</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1142" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1143">
+        <v>3.36</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1143" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1144">
+        <v>11.89</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1145">
+        <v>14.07</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1145" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1146">
+        <v>12.81</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1146" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1147">
+        <v>4.12</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1147" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1148">
+        <v>7.43</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1148" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1149">
+        <v>3.81</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1150">
+        <v>2.61</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1150" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1151">
+        <v>12.78</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1151" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1152">
+        <v>14.83</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1152" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1153">
+        <v>6.38</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1153" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1154">
+        <v>2.15</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1155">
+        <v>16.72</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1155" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1156">
+        <v>9.34</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1156" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1157">
+        <v>6.28</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1157" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1158">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1158" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1159">
+        <v>14.91</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1160">
+        <v>15.07</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1160" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1161">
+        <v>6.4</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1161" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1162" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1162">
+        <v>7.84</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1162" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1163">
+        <v>4.03</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1163" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1164">
+        <v>3.48</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1165">
+        <v>9.98</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1165" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1166">
+        <v>2.8</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1166" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1167">
+        <v>18.25</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1167" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1168">
+        <v>5.68</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1168" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1169">
+        <v>3.85</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1170">
+        <v>1.63</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1170" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1171">
+        <v>15.69</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1171" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1172">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1172" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1173">
+        <v>1.53</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1173" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1174">
+        <v>2.61</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1174" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1175">
+        <v>4.97</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1175" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1176">
+        <v>13.07</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1176" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1177">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1177" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1178">
+        <v>8.58</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1178" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1179">
+        <v>7.31</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1179" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1180">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1180" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1181">
+        <v>1.96</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1181" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1182">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1182" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1183">
+        <v>2.73</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1183" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1184">
+        <v>5.08</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1185">
+        <v>4.67</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1186">
+        <v>18.75</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1187">
+        <v>3.61</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1188">
+        <v>3.85</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1189">
+        <v>4.29</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1190">
+        <v>1.48</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1191">
+        <v>3.18</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1192">
+        <v>11.08</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1193">
+        <v>12.54</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1194">
+        <v>2.73</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1195">
+        <v>6.93</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1196">
+        <v>14.8</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1197">
+        <v>5.33</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1198">
+        <v>8.39</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1199">
+        <v>6.49</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1200">
+        <v>7.15</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1201">
+        <v>1.27</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1202">
+        <v>3.18</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1203">
+        <v>2.65</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1204">
+        <v>6.78</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1205">
+        <v>15.26</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1206">
+        <v>1.83</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1207">
+        <v>12.87</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1208">
+        <v>3.61</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1209">
+        <v>1.98</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1210">
+        <v>3.71</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1211">
+        <v>16.09</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1212">
+        <v>3.85</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1213">
+        <v>1.21</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1214">
+        <v>3.62</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1215">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1216">
+        <v>7.68</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1217">
+        <v>8.24</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1218">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1219">
+        <v>1.38</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1220">
+        <v>3.99</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1221">
+        <v>1.48</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1222">
+        <v>3.2</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1223">
+        <v>4.32</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1224">
+        <v>3.46</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1225">
+        <v>11.59</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1226">
+        <v>4.91</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1227">
+        <v>10.32</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1228">
+        <v>13.15</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1229">
+        <v>10.74</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1230">
+        <v>2.8</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1231">
+        <v>4.37</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1232">
+        <v>2.76</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1233">
+        <v>3</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1234" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1234">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1235" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1235">
+        <v>14.25</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1236" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1236">
+        <v>8.41</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1237" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1237">
+        <v>6.25</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1238" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1238">
+        <v>1.38</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1239" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1239">
+        <v>5.62</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1240" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1240">
+        <v>3.97</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1241" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1241">
+        <v>3.46</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1242" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1242">
+        <v>2.64</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1242" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1243" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1243">
+        <v>1.92</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1243" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1244" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1244">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>45402</v>
       </c>
     </row>
   </sheetData>

--- a/data/oaincubationsos.xlsx
+++ b/data/oaincubationsos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F755D9CD-F396-FC43-9C88-43C42FEC821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0608D-EA09-E74E-BA5F-579432FF7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{448C496B-2298-5E4E-AB14-2A722D9D2C4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="23">
   <si>
     <t>Genotype</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>OA400nMBac</t>
-  </si>
-  <si>
-    <t>4nM</t>
   </si>
   <si>
     <t>4nMT</t>
@@ -481,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D238B-8F9E-AA47-BBFF-CB61AD32C6EC}">
   <dimension ref="A1:F1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1758,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1778,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1798,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1818,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -1838,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1858,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1878,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1898,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1918,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -1938,7 +1935,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -1958,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -1978,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -1998,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2018,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -2038,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -2058,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2078,7 +2075,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2098,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -2118,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2138,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -2158,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2178,7 +2175,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2198,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2218,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2238,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2258,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2278,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2298,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -2318,7 +2315,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2338,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2358,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2378,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2398,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2418,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -2438,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2458,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2478,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -2498,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2518,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2538,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -2558,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -2578,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -2598,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -2618,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -2638,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2658,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2678,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -2698,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -2718,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2738,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -2758,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2778,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -2798,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -4038,7 +4035,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -4058,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -4078,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -4098,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -4118,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
@@ -4138,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -4158,7 +4155,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -4178,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -4198,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -4218,7 +4215,7 @@
         <v>6</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -4238,7 +4235,7 @@
         <v>6</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -4258,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -4278,7 +4275,7 @@
         <v>6</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
@@ -4298,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
@@ -4318,7 +4315,7 @@
         <v>6</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
@@ -4338,7 +4335,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -4358,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -4378,7 +4375,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
@@ -4398,13 +4395,13 @@
         <v>6</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2">
-        <v>21.21</v>
+        <v>12.21</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>9</v>
@@ -4418,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
@@ -4438,7 +4435,7 @@
         <v>6</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
@@ -4458,7 +4455,7 @@
         <v>6</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -4478,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -4498,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -4518,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
@@ -4538,7 +4535,7 @@
         <v>11</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -4558,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -4578,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -4598,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -4618,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -4638,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -4658,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -4678,7 +4675,7 @@
         <v>11</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
@@ -4698,7 +4695,7 @@
         <v>11</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -4718,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -4738,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
@@ -4758,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -4778,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -4798,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -4818,7 +4815,7 @@
         <v>11</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -4838,7 +4835,7 @@
         <v>11</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -4858,7 +4855,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -4878,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -4898,7 +4895,7 @@
         <v>10</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -4918,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -4938,7 +4935,7 @@
         <v>10</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -4958,7 +4955,7 @@
         <v>10</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -4978,7 +4975,7 @@
         <v>10</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -4998,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -5018,7 +5015,7 @@
         <v>10</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -5038,7 +5035,7 @@
         <v>10</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -5058,7 +5055,7 @@
         <v>10</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -5078,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -5098,7 +5095,7 @@
         <v>10</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -5118,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -5138,7 +5135,7 @@
         <v>10</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -5158,7 +5155,7 @@
         <v>10</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -5178,7 +5175,7 @@
         <v>6</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -5198,7 +5195,7 @@
         <v>6</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -5218,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -5238,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -5258,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -5278,7 +5275,7 @@
         <v>6</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -5298,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
@@ -5318,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -5338,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
         <v>8</v>
@@ -5358,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -5378,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -5398,7 +5395,7 @@
         <v>6</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
@@ -5418,7 +5415,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -5438,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -5458,7 +5455,7 @@
         <v>6</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -5478,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -5498,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -5518,7 +5515,7 @@
         <v>6</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -5538,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
@@ -5558,7 +5555,7 @@
         <v>6</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
@@ -5578,7 +5575,7 @@
         <v>6</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -5598,7 +5595,7 @@
         <v>6</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C256" t="s">
         <v>8</v>
@@ -5618,7 +5615,7 @@
         <v>6</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
@@ -5638,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C258" t="s">
         <v>8</v>
@@ -5658,7 +5655,7 @@
         <v>10</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C259" t="s">
         <v>8</v>
@@ -5678,7 +5675,7 @@
         <v>10</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -5698,7 +5695,7 @@
         <v>10</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -5718,7 +5715,7 @@
         <v>10</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -5738,7 +5735,7 @@
         <v>10</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C263" t="s">
         <v>8</v>
@@ -5758,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C264" t="s">
         <v>8</v>
@@ -5778,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C265" t="s">
         <v>8</v>
@@ -5798,7 +5795,7 @@
         <v>10</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -5818,7 +5815,7 @@
         <v>10</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
@@ -5838,7 +5835,7 @@
         <v>10</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
@@ -5858,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
@@ -5878,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C270" t="s">
         <v>8</v>
@@ -5898,7 +5895,7 @@
         <v>10</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -5918,7 +5915,7 @@
         <v>10</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -5938,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -5958,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C274" t="s">
         <v>8</v>
@@ -5978,7 +5975,7 @@
         <v>10</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -5998,7 +5995,7 @@
         <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -6018,7 +6015,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C277" t="s">
         <v>8</v>
@@ -6038,7 +6035,7 @@
         <v>10</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C278" t="s">
         <v>8</v>
@@ -6058,7 +6055,7 @@
         <v>11</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
@@ -6078,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -6098,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
@@ -6118,7 +6115,7 @@
         <v>11</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -6138,7 +6135,7 @@
         <v>11</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C283" t="s">
         <v>8</v>
@@ -6158,7 +6155,7 @@
         <v>11</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -6178,7 +6175,7 @@
         <v>11</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C285" t="s">
         <v>8</v>
@@ -6198,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -6218,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C287" t="s">
         <v>8</v>
@@ -6238,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -6258,7 +6255,7 @@
         <v>11</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C289" t="s">
         <v>8</v>
@@ -6278,7 +6275,7 @@
         <v>11</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
@@ -6298,7 +6295,7 @@
         <v>11</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -6318,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -6338,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C293" t="s">
         <v>8</v>
@@ -6358,7 +6355,7 @@
         <v>11</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C294" t="s">
         <v>8</v>
@@ -6378,7 +6375,7 @@
         <v>11</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
@@ -6398,7 +6395,7 @@
         <v>11</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -6418,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C297" t="s">
         <v>8</v>
@@ -6438,7 +6435,7 @@
         <v>6</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -6458,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C299" t="s">
         <v>8</v>
@@ -6478,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C300" t="s">
         <v>8</v>
@@ -6498,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C301" t="s">
         <v>8</v>
@@ -6518,7 +6515,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C302" t="s">
         <v>8</v>
@@ -6538,7 +6535,7 @@
         <v>6</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C303" t="s">
         <v>8</v>
@@ -6558,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C304" t="s">
         <v>8</v>
@@ -6578,7 +6575,7 @@
         <v>6</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C305" t="s">
         <v>8</v>
@@ -6598,7 +6595,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C306" t="s">
         <v>8</v>
@@ -6618,7 +6615,7 @@
         <v>6</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C307" t="s">
         <v>8</v>
@@ -6638,7 +6635,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -6658,7 +6655,7 @@
         <v>6</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C309" t="s">
         <v>8</v>
@@ -6678,7 +6675,7 @@
         <v>6</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -6698,7 +6695,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -6718,7 +6715,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C312" t="s">
         <v>8</v>
@@ -6738,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C313" t="s">
         <v>8</v>
@@ -6758,7 +6755,7 @@
         <v>6</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C314" t="s">
         <v>8</v>
@@ -6778,7 +6775,7 @@
         <v>6</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C315" t="s">
         <v>8</v>
@@ -6798,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -6818,7 +6815,7 @@
         <v>10</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C317" t="s">
         <v>8</v>
@@ -6838,7 +6835,7 @@
         <v>10</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C318" t="s">
         <v>8</v>
@@ -6858,7 +6855,7 @@
         <v>10</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C319" t="s">
         <v>8</v>
@@ -6878,7 +6875,7 @@
         <v>10</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
@@ -6898,7 +6895,7 @@
         <v>10</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -6918,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -6938,7 +6935,7 @@
         <v>10</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C323" t="s">
         <v>8</v>
@@ -6958,7 +6955,7 @@
         <v>10</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -6978,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -6998,7 +6995,7 @@
         <v>10</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C326" t="s">
         <v>8</v>
@@ -7018,7 +7015,7 @@
         <v>10</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C327" t="s">
         <v>8</v>
@@ -7038,7 +7035,7 @@
         <v>10</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C328" t="s">
         <v>8</v>
@@ -7058,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C329" t="s">
         <v>8</v>
@@ -7078,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C330" t="s">
         <v>8</v>
@@ -7098,7 +7095,7 @@
         <v>10</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C331" t="s">
         <v>8</v>
@@ -7118,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -7138,7 +7135,7 @@
         <v>10</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C333" t="s">
         <v>8</v>
@@ -7158,7 +7155,7 @@
         <v>10</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C334" t="s">
         <v>8</v>
@@ -8458,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
@@ -8478,7 +8475,7 @@
         <v>10</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -8498,7 +8495,7 @@
         <v>10</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -8518,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -8538,7 +8535,7 @@
         <v>10</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -8558,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -8578,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -8598,7 +8595,7 @@
         <v>10</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -8618,7 +8615,7 @@
         <v>10</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
@@ -8638,7 +8635,7 @@
         <v>10</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -8658,7 +8655,7 @@
         <v>10</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -8678,7 +8675,7 @@
         <v>10</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -8698,7 +8695,7 @@
         <v>10</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -8718,7 +8715,7 @@
         <v>10</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -8738,7 +8735,7 @@
         <v>10</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -8758,7 +8755,7 @@
         <v>10</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -8778,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -8798,7 +8795,7 @@
         <v>11</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
@@ -8818,7 +8815,7 @@
         <v>11</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -8838,7 +8835,7 @@
         <v>11</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
@@ -8858,7 +8855,7 @@
         <v>11</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -8878,7 +8875,7 @@
         <v>11</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -8898,7 +8895,7 @@
         <v>11</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
@@ -8918,7 +8915,7 @@
         <v>11</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
@@ -8938,7 +8935,7 @@
         <v>11</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
@@ -8958,7 +8955,7 @@
         <v>11</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
@@ -8978,7 +8975,7 @@
         <v>11</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
@@ -8998,7 +8995,7 @@
         <v>11</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
@@ -9018,7 +9015,7 @@
         <v>11</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
@@ -9038,7 +9035,7 @@
         <v>11</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -9058,7 +9055,7 @@
         <v>11</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -9078,7 +9075,7 @@
         <v>11</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -9098,7 +9095,7 @@
         <v>11</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
@@ -9118,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
@@ -9138,7 +9135,7 @@
         <v>11</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C433" t="s">
         <v>8</v>
@@ -9158,7 +9155,7 @@
         <v>11</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
@@ -9178,7 +9175,7 @@
         <v>11</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -9198,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
@@ -9218,7 +9215,7 @@
         <v>11</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C437" t="s">
         <v>8</v>
@@ -9238,7 +9235,7 @@
         <v>6</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C438" t="s">
         <v>8</v>
@@ -9258,7 +9255,7 @@
         <v>6</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
@@ -9278,7 +9275,7 @@
         <v>6</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C440" t="s">
         <v>8</v>
@@ -9298,7 +9295,7 @@
         <v>6</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
@@ -9318,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C442" t="s">
         <v>8</v>
@@ -9338,7 +9335,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C443" t="s">
         <v>8</v>
@@ -9358,7 +9355,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C444" t="s">
         <v>8</v>
@@ -9378,7 +9375,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -9398,7 +9395,7 @@
         <v>6</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C446" t="s">
         <v>8</v>
@@ -9418,7 +9415,7 @@
         <v>6</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C447" t="s">
         <v>8</v>
@@ -9438,7 +9435,7 @@
         <v>6</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C448" t="s">
         <v>8</v>
@@ -9458,7 +9455,7 @@
         <v>6</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C449" t="s">
         <v>8</v>
@@ -9478,7 +9475,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C450" t="s">
         <v>8</v>
@@ -9498,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C451" t="s">
         <v>8</v>
@@ -9518,7 +9515,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C452" t="s">
         <v>8</v>
@@ -9538,7 +9535,7 @@
         <v>6</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C453" t="s">
         <v>8</v>
@@ -9558,7 +9555,7 @@
         <v>6</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C454" t="s">
         <v>8</v>
@@ -9578,7 +9575,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
@@ -9598,7 +9595,7 @@
         <v>6</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
@@ -9618,7 +9615,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -9638,7 +9635,7 @@
         <v>6</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C458" t="s">
         <v>8</v>
@@ -9658,7 +9655,7 @@
         <v>6</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C459" t="s">
         <v>8</v>
@@ -9678,7 +9675,7 @@
         <v>6</v>
       </c>
       <c r="B460" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C460" t="s">
         <v>8</v>
@@ -9698,7 +9695,7 @@
         <v>6</v>
       </c>
       <c r="B461" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C461" t="s">
         <v>8</v>
@@ -9718,7 +9715,7 @@
         <v>6</v>
       </c>
       <c r="B462" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C462" t="s">
         <v>8</v>
@@ -9738,7 +9735,7 @@
         <v>6</v>
       </c>
       <c r="B463" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C463" t="s">
         <v>8</v>
@@ -9758,7 +9755,7 @@
         <v>6</v>
       </c>
       <c r="B464" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C464" t="s">
         <v>8</v>
@@ -9778,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="B465" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C465" t="s">
         <v>8</v>
@@ -9798,7 +9795,7 @@
         <v>6</v>
       </c>
       <c r="B466" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C466" t="s">
         <v>8</v>
@@ -9818,7 +9815,7 @@
         <v>6</v>
       </c>
       <c r="B467" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C467" t="s">
         <v>8</v>
@@ -9838,7 +9835,7 @@
         <v>6</v>
       </c>
       <c r="B468" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -9858,7 +9855,7 @@
         <v>6</v>
       </c>
       <c r="B469" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C469" t="s">
         <v>8</v>
@@ -9878,7 +9875,7 @@
         <v>6</v>
       </c>
       <c r="B470" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C470" t="s">
         <v>8</v>
@@ -9898,7 +9895,7 @@
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C471" t="s">
         <v>8</v>
@@ -9918,7 +9915,7 @@
         <v>6</v>
       </c>
       <c r="B472" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C472" t="s">
         <v>8</v>
@@ -9938,7 +9935,7 @@
         <v>6</v>
       </c>
       <c r="B473" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C473" t="s">
         <v>8</v>
@@ -9958,7 +9955,7 @@
         <v>6</v>
       </c>
       <c r="B474" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C474" t="s">
         <v>8</v>
@@ -9978,7 +9975,7 @@
         <v>6</v>
       </c>
       <c r="B475" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C475" t="s">
         <v>8</v>
@@ -9998,7 +9995,7 @@
         <v>6</v>
       </c>
       <c r="B476" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C476" t="s">
         <v>8</v>
@@ -10018,7 +10015,7 @@
         <v>6</v>
       </c>
       <c r="B477" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C477" t="s">
         <v>8</v>
@@ -10038,7 +10035,7 @@
         <v>6</v>
       </c>
       <c r="B478" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
@@ -10058,7 +10055,7 @@
         <v>6</v>
       </c>
       <c r="B479" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C479" t="s">
         <v>8</v>
@@ -10078,7 +10075,7 @@
         <v>6</v>
       </c>
       <c r="B480" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C480" t="s">
         <v>8</v>
@@ -10098,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="B481" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C481" t="s">
         <v>8</v>
@@ -10118,7 +10115,7 @@
         <v>6</v>
       </c>
       <c r="B482" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C482" t="s">
         <v>8</v>
@@ -10138,7 +10135,7 @@
         <v>6</v>
       </c>
       <c r="B483" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C483" t="s">
         <v>8</v>
@@ -10158,7 +10155,7 @@
         <v>6</v>
       </c>
       <c r="B484" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C484" t="s">
         <v>8</v>
@@ -10178,7 +10175,7 @@
         <v>10</v>
       </c>
       <c r="B485" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C485" t="s">
         <v>8</v>
@@ -10198,7 +10195,7 @@
         <v>10</v>
       </c>
       <c r="B486" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C486" t="s">
         <v>8</v>
@@ -10218,7 +10215,7 @@
         <v>10</v>
       </c>
       <c r="B487" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C487" t="s">
         <v>8</v>
@@ -10238,7 +10235,7 @@
         <v>10</v>
       </c>
       <c r="B488" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C488" t="s">
         <v>8</v>
@@ -10258,7 +10255,7 @@
         <v>10</v>
       </c>
       <c r="B489" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C489" t="s">
         <v>8</v>
@@ -10278,7 +10275,7 @@
         <v>10</v>
       </c>
       <c r="B490" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C490" t="s">
         <v>8</v>
@@ -10298,7 +10295,7 @@
         <v>10</v>
       </c>
       <c r="B491" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C491" t="s">
         <v>8</v>
@@ -10318,7 +10315,7 @@
         <v>10</v>
       </c>
       <c r="B492" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
@@ -10338,7 +10335,7 @@
         <v>10</v>
       </c>
       <c r="B493" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C493" t="s">
         <v>8</v>
@@ -10358,7 +10355,7 @@
         <v>10</v>
       </c>
       <c r="B494" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C494" t="s">
         <v>8</v>
@@ -10378,7 +10375,7 @@
         <v>10</v>
       </c>
       <c r="B495" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C495" t="s">
         <v>8</v>
@@ -10398,7 +10395,7 @@
         <v>10</v>
       </c>
       <c r="B496" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C496" t="s">
         <v>8</v>
@@ -10418,7 +10415,7 @@
         <v>10</v>
       </c>
       <c r="B497" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C497" t="s">
         <v>8</v>
@@ -10438,7 +10435,7 @@
         <v>10</v>
       </c>
       <c r="B498" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C498" t="s">
         <v>8</v>
@@ -10458,7 +10455,7 @@
         <v>10</v>
       </c>
       <c r="B499" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C499" t="s">
         <v>8</v>
@@ -10478,7 +10475,7 @@
         <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -10498,7 +10495,7 @@
         <v>10</v>
       </c>
       <c r="B501" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C501" t="s">
         <v>8</v>
@@ -10518,7 +10515,7 @@
         <v>11</v>
       </c>
       <c r="B502" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C502" t="s">
         <v>8</v>
@@ -10538,7 +10535,7 @@
         <v>11</v>
       </c>
       <c r="B503" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C503" t="s">
         <v>8</v>
@@ -10558,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="B504" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C504" t="s">
         <v>8</v>
@@ -10578,7 +10575,7 @@
         <v>11</v>
       </c>
       <c r="B505" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C505" t="s">
         <v>8</v>
@@ -10598,7 +10595,7 @@
         <v>11</v>
       </c>
       <c r="B506" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C506" t="s">
         <v>8</v>
@@ -10618,7 +10615,7 @@
         <v>11</v>
       </c>
       <c r="B507" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C507" t="s">
         <v>8</v>
@@ -10638,7 +10635,7 @@
         <v>11</v>
       </c>
       <c r="B508" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C508" t="s">
         <v>8</v>
@@ -10658,7 +10655,7 @@
         <v>11</v>
       </c>
       <c r="B509" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C509" t="s">
         <v>8</v>
@@ -10678,7 +10675,7 @@
         <v>11</v>
       </c>
       <c r="B510" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C510" t="s">
         <v>8</v>
@@ -10698,7 +10695,7 @@
         <v>11</v>
       </c>
       <c r="B511" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C511" t="s">
         <v>8</v>
@@ -10718,7 +10715,7 @@
         <v>11</v>
       </c>
       <c r="B512" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C512" t="s">
         <v>8</v>
@@ -10738,7 +10735,7 @@
         <v>11</v>
       </c>
       <c r="B513" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C513" t="s">
         <v>8</v>
@@ -10758,7 +10755,7 @@
         <v>11</v>
       </c>
       <c r="B514" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C514" t="s">
         <v>8</v>
@@ -10778,7 +10775,7 @@
         <v>11</v>
       </c>
       <c r="B515" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C515" t="s">
         <v>8</v>
@@ -10798,7 +10795,7 @@
         <v>11</v>
       </c>
       <c r="B516" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C516" t="s">
         <v>8</v>
@@ -10818,7 +10815,7 @@
         <v>11</v>
       </c>
       <c r="B517" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C517" t="s">
         <v>8</v>
@@ -10838,7 +10835,7 @@
         <v>11</v>
       </c>
       <c r="B518" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C518" t="s">
         <v>8</v>
@@ -12518,7 +12515,7 @@
         <v>10</v>
       </c>
       <c r="B602" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C602" t="s">
         <v>8</v>
@@ -12538,7 +12535,7 @@
         <v>10</v>
       </c>
       <c r="B603" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C603" t="s">
         <v>8</v>
@@ -12558,7 +12555,7 @@
         <v>10</v>
       </c>
       <c r="B604" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C604" t="s">
         <v>8</v>
@@ -12578,7 +12575,7 @@
         <v>10</v>
       </c>
       <c r="B605" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C605" t="s">
         <v>8</v>
@@ -12598,7 +12595,7 @@
         <v>10</v>
       </c>
       <c r="B606" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C606" t="s">
         <v>8</v>
@@ -12618,7 +12615,7 @@
         <v>10</v>
       </c>
       <c r="B607" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C607" t="s">
         <v>8</v>
@@ -12638,7 +12635,7 @@
         <v>10</v>
       </c>
       <c r="B608" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C608" t="s">
         <v>8</v>
@@ -12658,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="B609" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C609" t="s">
         <v>8</v>
@@ -12678,7 +12675,7 @@
         <v>10</v>
       </c>
       <c r="B610" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C610" t="s">
         <v>8</v>
@@ -12698,7 +12695,7 @@
         <v>10</v>
       </c>
       <c r="B611" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C611" t="s">
         <v>8</v>
@@ -12718,7 +12715,7 @@
         <v>10</v>
       </c>
       <c r="B612" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C612" t="s">
         <v>8</v>
@@ -12738,7 +12735,7 @@
         <v>10</v>
       </c>
       <c r="B613" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C613" t="s">
         <v>8</v>
@@ -12758,7 +12755,7 @@
         <v>10</v>
       </c>
       <c r="B614" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C614" t="s">
         <v>8</v>
@@ -12778,7 +12775,7 @@
         <v>10</v>
       </c>
       <c r="B615" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C615" t="s">
         <v>8</v>
@@ -12798,7 +12795,7 @@
         <v>10</v>
       </c>
       <c r="B616" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C616" t="s">
         <v>8</v>
@@ -12818,7 +12815,7 @@
         <v>10</v>
       </c>
       <c r="B617" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C617" t="s">
         <v>8</v>
@@ -12838,7 +12835,7 @@
         <v>10</v>
       </c>
       <c r="B618" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C618" t="s">
         <v>8</v>
@@ -12858,7 +12855,7 @@
         <v>10</v>
       </c>
       <c r="B619" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C619" t="s">
         <v>8</v>
@@ -12878,7 +12875,7 @@
         <v>10</v>
       </c>
       <c r="B620" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C620" t="s">
         <v>8</v>
@@ -13218,7 +13215,7 @@
         <v>10</v>
       </c>
       <c r="B637" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C637" t="s">
         <v>8</v>
@@ -13238,7 +13235,7 @@
         <v>10</v>
       </c>
       <c r="B638" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C638" t="s">
         <v>8</v>
@@ -13258,7 +13255,7 @@
         <v>10</v>
       </c>
       <c r="B639" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C639" t="s">
         <v>8</v>
@@ -13278,7 +13275,7 @@
         <v>10</v>
       </c>
       <c r="B640" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C640" t="s">
         <v>8</v>
@@ -13298,7 +13295,7 @@
         <v>10</v>
       </c>
       <c r="B641" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C641" t="s">
         <v>8</v>
@@ -13318,7 +13315,7 @@
         <v>10</v>
       </c>
       <c r="B642" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C642" t="s">
         <v>8</v>
@@ -13338,7 +13335,7 @@
         <v>10</v>
       </c>
       <c r="B643" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C643" t="s">
         <v>8</v>
@@ -13358,7 +13355,7 @@
         <v>10</v>
       </c>
       <c r="B644" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C644" t="s">
         <v>8</v>
@@ -13378,7 +13375,7 @@
         <v>10</v>
       </c>
       <c r="B645" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C645" t="s">
         <v>8</v>
@@ -13398,7 +13395,7 @@
         <v>10</v>
       </c>
       <c r="B646" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C646" t="s">
         <v>8</v>
@@ -13418,7 +13415,7 @@
         <v>10</v>
       </c>
       <c r="B647" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C647" t="s">
         <v>8</v>
@@ -13438,7 +13435,7 @@
         <v>10</v>
       </c>
       <c r="B648" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C648" t="s">
         <v>8</v>
@@ -13458,7 +13455,7 @@
         <v>10</v>
       </c>
       <c r="B649" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C649" t="s">
         <v>8</v>
@@ -13478,7 +13475,7 @@
         <v>10</v>
       </c>
       <c r="B650" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C650" t="s">
         <v>8</v>
@@ -13498,7 +13495,7 @@
         <v>10</v>
       </c>
       <c r="B651" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C651" t="s">
         <v>8</v>
@@ -13518,7 +13515,7 @@
         <v>10</v>
       </c>
       <c r="B652" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C652" t="s">
         <v>8</v>
@@ -13538,7 +13535,7 @@
         <v>10</v>
       </c>
       <c r="B653" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C653" t="s">
         <v>8</v>
@@ -13558,7 +13555,7 @@
         <v>10</v>
       </c>
       <c r="B654" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C654" t="s">
         <v>8</v>
@@ -13578,7 +13575,7 @@
         <v>10</v>
       </c>
       <c r="B655" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C655" t="s">
         <v>8</v>
@@ -14058,7 +14055,7 @@
         <v>10</v>
       </c>
       <c r="B679" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C679" t="s">
         <v>8</v>
@@ -14078,7 +14075,7 @@
         <v>10</v>
       </c>
       <c r="B680" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C680" t="s">
         <v>8</v>
@@ -14098,7 +14095,7 @@
         <v>10</v>
       </c>
       <c r="B681" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C681" t="s">
         <v>8</v>
@@ -14118,7 +14115,7 @@
         <v>10</v>
       </c>
       <c r="B682" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C682" t="s">
         <v>8</v>
@@ -14138,7 +14135,7 @@
         <v>10</v>
       </c>
       <c r="B683" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C683" t="s">
         <v>8</v>
@@ -14158,7 +14155,7 @@
         <v>10</v>
       </c>
       <c r="B684" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C684" t="s">
         <v>8</v>
@@ -14178,7 +14175,7 @@
         <v>10</v>
       </c>
       <c r="B685" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C685" t="s">
         <v>8</v>
@@ -14198,7 +14195,7 @@
         <v>10</v>
       </c>
       <c r="B686" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C686" t="s">
         <v>8</v>
@@ -14218,7 +14215,7 @@
         <v>10</v>
       </c>
       <c r="B687" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C687" t="s">
         <v>8</v>
@@ -14238,7 +14235,7 @@
         <v>10</v>
       </c>
       <c r="B688" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C688" t="s">
         <v>8</v>
@@ -14258,7 +14255,7 @@
         <v>10</v>
       </c>
       <c r="B689" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C689" t="s">
         <v>8</v>
@@ -14278,7 +14275,7 @@
         <v>10</v>
       </c>
       <c r="B690" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C690" t="s">
         <v>8</v>
@@ -14298,7 +14295,7 @@
         <v>10</v>
       </c>
       <c r="B691" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C691" t="s">
         <v>8</v>
@@ -14318,7 +14315,7 @@
         <v>10</v>
       </c>
       <c r="B692" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C692" t="s">
         <v>8</v>
@@ -14338,7 +14335,7 @@
         <v>10</v>
       </c>
       <c r="B693" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C693" t="s">
         <v>8</v>
@@ -14358,7 +14355,7 @@
         <v>10</v>
       </c>
       <c r="B694" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C694" t="s">
         <v>8</v>
@@ -14378,7 +14375,7 @@
         <v>10</v>
       </c>
       <c r="B695" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C695" t="s">
         <v>8</v>
@@ -14398,7 +14395,7 @@
         <v>10</v>
       </c>
       <c r="B696" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C696" t="s">
         <v>8</v>
@@ -15758,7 +15755,7 @@
         <v>10</v>
       </c>
       <c r="B764" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C764" t="s">
         <v>8</v>
@@ -15778,7 +15775,7 @@
         <v>10</v>
       </c>
       <c r="B765" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C765" t="s">
         <v>8</v>
@@ -15798,7 +15795,7 @@
         <v>10</v>
       </c>
       <c r="B766" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C766" t="s">
         <v>8</v>
@@ -15818,7 +15815,7 @@
         <v>10</v>
       </c>
       <c r="B767" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C767" t="s">
         <v>8</v>
@@ -15838,7 +15835,7 @@
         <v>10</v>
       </c>
       <c r="B768" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C768" t="s">
         <v>8</v>
@@ -15858,7 +15855,7 @@
         <v>10</v>
       </c>
       <c r="B769" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C769" t="s">
         <v>8</v>
@@ -15878,7 +15875,7 @@
         <v>10</v>
       </c>
       <c r="B770" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C770" t="s">
         <v>8</v>
@@ -15898,7 +15895,7 @@
         <v>10</v>
       </c>
       <c r="B771" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C771" t="s">
         <v>8</v>
@@ -15918,7 +15915,7 @@
         <v>10</v>
       </c>
       <c r="B772" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C772" t="s">
         <v>8</v>
@@ -15938,7 +15935,7 @@
         <v>10</v>
       </c>
       <c r="B773" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C773" t="s">
         <v>8</v>
@@ -15958,7 +15955,7 @@
         <v>10</v>
       </c>
       <c r="B774" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C774" t="s">
         <v>8</v>
@@ -15978,7 +15975,7 @@
         <v>10</v>
       </c>
       <c r="B775" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C775" t="s">
         <v>8</v>
@@ -15998,7 +15995,7 @@
         <v>10</v>
       </c>
       <c r="B776" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C776" t="s">
         <v>8</v>
@@ -16018,7 +16015,7 @@
         <v>10</v>
       </c>
       <c r="B777" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C777" t="s">
         <v>8</v>
@@ -16038,7 +16035,7 @@
         <v>10</v>
       </c>
       <c r="B778" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C778" t="s">
         <v>8</v>
@@ -16058,7 +16055,7 @@
         <v>10</v>
       </c>
       <c r="B779" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C779" t="s">
         <v>8</v>
@@ -16078,7 +16075,7 @@
         <v>10</v>
       </c>
       <c r="B780" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C780" t="s">
         <v>8</v>
@@ -16098,7 +16095,7 @@
         <v>10</v>
       </c>
       <c r="B781" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C781" t="s">
         <v>8</v>
@@ -16118,7 +16115,7 @@
         <v>10</v>
       </c>
       <c r="B782" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C782" t="s">
         <v>8</v>
@@ -16138,7 +16135,7 @@
         <v>10</v>
       </c>
       <c r="B783" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C783" t="s">
         <v>8</v>
@@ -16158,7 +16155,7 @@
         <v>10</v>
       </c>
       <c r="B784" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C784" t="s">
         <v>8</v>
@@ -16178,7 +16175,7 @@
         <v>10</v>
       </c>
       <c r="B785" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C785" t="s">
         <v>8</v>
@@ -16198,7 +16195,7 @@
         <v>10</v>
       </c>
       <c r="B786" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C786" t="s">
         <v>8</v>
@@ -16218,7 +16215,7 @@
         <v>10</v>
       </c>
       <c r="B787" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C787" t="s">
         <v>8</v>
@@ -16238,7 +16235,7 @@
         <v>10</v>
       </c>
       <c r="B788" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C788" t="s">
         <v>8</v>
@@ -16258,7 +16255,7 @@
         <v>10</v>
       </c>
       <c r="B789" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C789" t="s">
         <v>8</v>
@@ -16278,7 +16275,7 @@
         <v>10</v>
       </c>
       <c r="B790" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C790" t="s">
         <v>8</v>
@@ -16298,7 +16295,7 @@
         <v>10</v>
       </c>
       <c r="B791" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C791" t="s">
         <v>8</v>
@@ -16318,7 +16315,7 @@
         <v>10</v>
       </c>
       <c r="B792" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C792" t="s">
         <v>8</v>
@@ -16338,7 +16335,7 @@
         <v>10</v>
       </c>
       <c r="B793" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C793" t="s">
         <v>8</v>
@@ -16358,7 +16355,7 @@
         <v>10</v>
       </c>
       <c r="B794" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C794" t="s">
         <v>8</v>
@@ -16378,7 +16375,7 @@
         <v>10</v>
       </c>
       <c r="B795" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C795" t="s">
         <v>8</v>
@@ -16398,7 +16395,7 @@
         <v>10</v>
       </c>
       <c r="B796" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C796" t="s">
         <v>8</v>
@@ -16418,7 +16415,7 @@
         <v>10</v>
       </c>
       <c r="B797" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C797" t="s">
         <v>8</v>
@@ -16438,7 +16435,7 @@
         <v>10</v>
       </c>
       <c r="B798" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C798" t="s">
         <v>8</v>
@@ -16458,7 +16455,7 @@
         <v>10</v>
       </c>
       <c r="B799" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C799" t="s">
         <v>8</v>
@@ -17278,7 +17275,7 @@
         <v>11</v>
       </c>
       <c r="B840" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C840" t="s">
         <v>8</v>
@@ -17298,7 +17295,7 @@
         <v>11</v>
       </c>
       <c r="B841" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C841" t="s">
         <v>8</v>
@@ -17318,7 +17315,7 @@
         <v>11</v>
       </c>
       <c r="B842" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C842" t="s">
         <v>8</v>
@@ -17338,7 +17335,7 @@
         <v>11</v>
       </c>
       <c r="B843" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C843" t="s">
         <v>8</v>
@@ -17358,7 +17355,7 @@
         <v>11</v>
       </c>
       <c r="B844" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C844" t="s">
         <v>8</v>
@@ -17378,7 +17375,7 @@
         <v>11</v>
       </c>
       <c r="B845" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C845" t="s">
         <v>8</v>
@@ -17398,7 +17395,7 @@
         <v>11</v>
       </c>
       <c r="B846" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C846" t="s">
         <v>8</v>
@@ -17418,7 +17415,7 @@
         <v>11</v>
       </c>
       <c r="B847" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C847" t="s">
         <v>8</v>
@@ -17438,7 +17435,7 @@
         <v>11</v>
       </c>
       <c r="B848" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C848" t="s">
         <v>8</v>
@@ -17458,7 +17455,7 @@
         <v>11</v>
       </c>
       <c r="B849" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C849" t="s">
         <v>8</v>
@@ -17478,7 +17475,7 @@
         <v>11</v>
       </c>
       <c r="B850" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C850" t="s">
         <v>8</v>
@@ -17498,7 +17495,7 @@
         <v>11</v>
       </c>
       <c r="B851" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C851" t="s">
         <v>8</v>
@@ -17518,7 +17515,7 @@
         <v>11</v>
       </c>
       <c r="B852" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C852" t="s">
         <v>8</v>
@@ -17538,7 +17535,7 @@
         <v>11</v>
       </c>
       <c r="B853" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C853" t="s">
         <v>8</v>
@@ -17558,7 +17555,7 @@
         <v>11</v>
       </c>
       <c r="B854" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C854" t="s">
         <v>8</v>
@@ -17578,7 +17575,7 @@
         <v>11</v>
       </c>
       <c r="B855" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C855" t="s">
         <v>8</v>
@@ -17598,7 +17595,7 @@
         <v>11</v>
       </c>
       <c r="B856" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C856" t="s">
         <v>8</v>
@@ -17618,7 +17615,7 @@
         <v>11</v>
       </c>
       <c r="B857" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C857" t="s">
         <v>8</v>
@@ -17638,7 +17635,7 @@
         <v>6</v>
       </c>
       <c r="B858" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C858" t="s">
         <v>8</v>
@@ -17658,7 +17655,7 @@
         <v>6</v>
       </c>
       <c r="B859" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C859" t="s">
         <v>8</v>
@@ -17678,7 +17675,7 @@
         <v>6</v>
       </c>
       <c r="B860" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C860" t="s">
         <v>8</v>
@@ -17698,7 +17695,7 @@
         <v>6</v>
       </c>
       <c r="B861" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C861" t="s">
         <v>8</v>
@@ -17718,7 +17715,7 @@
         <v>6</v>
       </c>
       <c r="B862" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C862" t="s">
         <v>8</v>
@@ -17738,7 +17735,7 @@
         <v>6</v>
       </c>
       <c r="B863" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C863" t="s">
         <v>8</v>
@@ -17758,7 +17755,7 @@
         <v>6</v>
       </c>
       <c r="B864" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C864" t="s">
         <v>8</v>
@@ -17778,7 +17775,7 @@
         <v>6</v>
       </c>
       <c r="B865" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C865" t="s">
         <v>8</v>
@@ -17798,7 +17795,7 @@
         <v>6</v>
       </c>
       <c r="B866" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C866" t="s">
         <v>8</v>
@@ -17818,7 +17815,7 @@
         <v>6</v>
       </c>
       <c r="B867" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C867" t="s">
         <v>8</v>
@@ -17838,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="B868" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C868" t="s">
         <v>8</v>
@@ -17858,7 +17855,7 @@
         <v>6</v>
       </c>
       <c r="B869" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C869" t="s">
         <v>8</v>
@@ -17878,7 +17875,7 @@
         <v>6</v>
       </c>
       <c r="B870" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C870" t="s">
         <v>8</v>
@@ -17898,7 +17895,7 @@
         <v>6</v>
       </c>
       <c r="B871" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C871" t="s">
         <v>8</v>
@@ -17918,7 +17915,7 @@
         <v>6</v>
       </c>
       <c r="B872" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C872" t="s">
         <v>8</v>
@@ -17938,7 +17935,7 @@
         <v>6</v>
       </c>
       <c r="B873" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C873" t="s">
         <v>8</v>
@@ -21898,7 +21895,7 @@
         <v>10</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1071" t="s">
         <v>8</v>
@@ -21918,7 +21915,7 @@
         <v>10</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1072" t="s">
         <v>8</v>
@@ -21938,7 +21935,7 @@
         <v>10</v>
       </c>
       <c r="B1073" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1073" t="s">
         <v>8</v>
@@ -21958,7 +21955,7 @@
         <v>10</v>
       </c>
       <c r="B1074" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1074" t="s">
         <v>8</v>
@@ -21978,7 +21975,7 @@
         <v>10</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1075" t="s">
         <v>8</v>
@@ -21998,7 +21995,7 @@
         <v>10</v>
       </c>
       <c r="B1076" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1076" t="s">
         <v>8</v>
@@ -22018,7 +22015,7 @@
         <v>10</v>
       </c>
       <c r="B1077" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1077" t="s">
         <v>8</v>
@@ -22038,7 +22035,7 @@
         <v>10</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1078" t="s">
         <v>8</v>
@@ -22058,7 +22055,7 @@
         <v>10</v>
       </c>
       <c r="B1079" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1079" t="s">
         <v>8</v>
@@ -22078,7 +22075,7 @@
         <v>10</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1080" t="s">
         <v>8</v>
@@ -22098,7 +22095,7 @@
         <v>10</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1081" t="s">
         <v>8</v>
@@ -22118,7 +22115,7 @@
         <v>10</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1082" t="s">
         <v>8</v>
@@ -22138,7 +22135,7 @@
         <v>10</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1083" t="s">
         <v>8</v>
@@ -22158,7 +22155,7 @@
         <v>10</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1084" t="s">
         <v>8</v>
@@ -22178,7 +22175,7 @@
         <v>10</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1085" t="s">
         <v>8</v>
@@ -22198,7 +22195,7 @@
         <v>10</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1086" t="s">
         <v>8</v>
@@ -22218,7 +22215,7 @@
         <v>10</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1087" t="s">
         <v>8</v>
@@ -22238,7 +22235,7 @@
         <v>6</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1088" t="s">
         <v>8</v>
@@ -22258,7 +22255,7 @@
         <v>6</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1089" t="s">
         <v>8</v>
@@ -22278,7 +22275,7 @@
         <v>6</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1090" t="s">
         <v>8</v>
@@ -22298,7 +22295,7 @@
         <v>6</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1091" t="s">
         <v>8</v>
@@ -22318,7 +22315,7 @@
         <v>6</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1092" t="s">
         <v>8</v>
@@ -22338,7 +22335,7 @@
         <v>6</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1093" t="s">
         <v>8</v>
@@ -22358,7 +22355,7 @@
         <v>6</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1094" t="s">
         <v>8</v>
@@ -22378,7 +22375,7 @@
         <v>6</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1095" t="s">
         <v>8</v>
@@ -22398,7 +22395,7 @@
         <v>6</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1096" t="s">
         <v>8</v>
@@ -22418,7 +22415,7 @@
         <v>6</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1097" t="s">
         <v>8</v>
@@ -22438,7 +22435,7 @@
         <v>6</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1098" t="s">
         <v>8</v>
@@ -22458,7 +22455,7 @@
         <v>6</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1099" t="s">
         <v>8</v>
@@ -22478,7 +22475,7 @@
         <v>6</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1100" t="s">
         <v>8</v>
@@ -22498,7 +22495,7 @@
         <v>6</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1101" t="s">
         <v>8</v>
@@ -22518,7 +22515,7 @@
         <v>6</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1102" t="s">
         <v>8</v>
@@ -22538,7 +22535,7 @@
         <v>6</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1103" t="s">
         <v>8</v>
@@ -22558,7 +22555,7 @@
         <v>6</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1104" t="s">
         <v>8</v>
@@ -22578,7 +22575,7 @@
         <v>6</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1105" t="s">
         <v>8</v>
@@ -22598,7 +22595,7 @@
         <v>6</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1106" t="s">
         <v>8</v>
@@ -22618,7 +22615,7 @@
         <v>11</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1107" t="s">
         <v>8</v>
@@ -22638,7 +22635,7 @@
         <v>11</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1108" t="s">
         <v>8</v>
@@ -22658,7 +22655,7 @@
         <v>11</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1109" t="s">
         <v>8</v>
@@ -22678,7 +22675,7 @@
         <v>11</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1110" t="s">
         <v>8</v>
@@ -22698,7 +22695,7 @@
         <v>11</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1111" t="s">
         <v>8</v>
@@ -22718,7 +22715,7 @@
         <v>11</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1112" t="s">
         <v>8</v>
@@ -22738,7 +22735,7 @@
         <v>11</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1113" t="s">
         <v>8</v>
@@ -22758,7 +22755,7 @@
         <v>11</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1114" t="s">
         <v>8</v>
@@ -22778,7 +22775,7 @@
         <v>11</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1115" t="s">
         <v>8</v>
@@ -22798,7 +22795,7 @@
         <v>11</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1116" t="s">
         <v>8</v>
@@ -22818,7 +22815,7 @@
         <v>11</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1117" t="s">
         <v>8</v>
@@ -22838,7 +22835,7 @@
         <v>11</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1118" t="s">
         <v>8</v>
@@ -22858,7 +22855,7 @@
         <v>11</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1119" t="s">
         <v>8</v>
@@ -22878,7 +22875,7 @@
         <v>11</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1120" t="s">
         <v>8</v>
@@ -22898,7 +22895,7 @@
         <v>11</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1121" t="s">
         <v>8</v>
@@ -22918,7 +22915,7 @@
         <v>11</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1122" t="s">
         <v>8</v>
@@ -22938,7 +22935,7 @@
         <v>11</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1123" t="s">
         <v>8</v>
@@ -22958,7 +22955,7 @@
         <v>11</v>
       </c>
       <c r="B1124" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1124" t="s">
         <v>8</v>
@@ -22978,7 +22975,7 @@
         <v>11</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1125" t="s">
         <v>8</v>
@@ -22998,7 +22995,7 @@
         <v>11</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1126" t="s">
         <v>8</v>
@@ -23018,7 +23015,7 @@
         <v>11</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1127" t="s">
         <v>8</v>

--- a/data/oaincubationsos.xlsx
+++ b/data/oaincubationsos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0608D-EA09-E74E-BA5F-579432FF7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB79147-9969-0546-9D8C-6695B9615CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{448C496B-2298-5E4E-AB14-2A722D9D2C4A}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{448C496B-2298-5E4E-AB14-2A722D9D2C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5902" uniqueCount="24">
   <si>
     <t>Genotype</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4mMOA</t>
+  </si>
+  <si>
+    <t>OA40uMT</t>
   </si>
 </sst>
 </file>
@@ -476,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D238B-8F9E-AA47-BBFF-CB61AD32C6EC}">
-  <dimension ref="A1:F1244"/>
+  <dimension ref="A1:F1475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="D625" sqref="D625"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A906" sqref="A906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -25370,7 +25373,4595 @@
         <v>45402</v>
       </c>
     </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1245">
+        <v>13.33</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1245" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246">
+        <v>11.3</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1246" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1247">
+        <v>5.17</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1247" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1248">
+        <v>1.08</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1248" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1250">
+        <v>7.09</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1250" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1251">
+        <v>7.37</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1251" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1252">
+        <v>11.49</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1252" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1253">
+        <v>13.28</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1253" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1254">
+        <v>15.2</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1255">
+        <v>8.11</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1256">
+        <v>16.13</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1256" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1257">
+        <v>1.17</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1258">
+        <v>13.61</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1259">
+        <v>9.32</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1260">
+        <v>10.85</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1261">
+        <v>5.12</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1262">
+        <v>13.27</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1263">
+        <v>6.62</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1264">
+        <v>9.77</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1265">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1266">
+        <v>15.19</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1267">
+        <v>1.55</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1268">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1269">
+        <v>11.2</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1272">
+        <v>14.3</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1273">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1274">
+        <v>9.27</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1275">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1276">
+        <v>3.84</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1277">
+        <v>8.09</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1278">
+        <v>5.29</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1279">
+        <v>3.35</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1280">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1281">
+        <v>2.92</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1282">
+        <v>14.36</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1283">
+        <v>5.92</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1284">
+        <v>1.93</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1285">
+        <v>3.95</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1286">
+        <v>4.75</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1287">
+        <v>2.71</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1288">
+        <v>3.2</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1289">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1290">
+        <v>11.76</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1291">
+        <v>5.17</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1292">
+        <v>3.78</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1293">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1294">
+        <v>3.24</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1295">
+        <v>6.57</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1296">
+        <v>4.12</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1297">
+        <v>7.35</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1298">
+        <v>4.78</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1299">
+        <v>1.36</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1300">
+        <v>11.57</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1300" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1301">
+        <v>1.51</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1301" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1302">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1302" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1303">
+        <v>6.13</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1303" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1304" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1305">
+        <v>2.86</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1305" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1306">
+        <v>4.83</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1307">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1307" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1308">
+        <v>2.35</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1308" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1309">
+        <v>2.86</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1309" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1310">
+        <v>3.2</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1311">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1311" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1312">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1312" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1313">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1313" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1314">
+        <v>4.53</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1314" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1315">
+        <v>9.25</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1316">
+        <v>7.63</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1316" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1317">
+        <v>1.62</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1317" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1318">
+        <v>9.39</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1318" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1319">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1319" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1320">
+        <v>15.67</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1321">
+        <v>1.93</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1321" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1322">
+        <v>8.02</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1322" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1323">
+        <v>1.38</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1323" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1324">
+        <v>11.67</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1324" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1325">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1325" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1326">
+        <v>3.35</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1326" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1327">
+        <v>11.59</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1327" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1328">
+        <v>3.96</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1328" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1329">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1329" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1330">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1331">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1331" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1332">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1332" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1333">
+        <v>6.52</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1333" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1334">
+        <v>3.63</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1335">
+        <v>14.39</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1336">
+        <v>2.98</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1337">
+        <v>5.32</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1338">
+        <v>2.9</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1339">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1340">
+        <v>3.8</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1341">
+        <v>2.98</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1342">
+        <v>3.21</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1343">
+        <v>19.48</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1344">
+        <v>4.42</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1345">
+        <v>17.911000000000001</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1346">
+        <v>3.15</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1347">
+        <v>5.01</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1348">
+        <v>9.18</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1349">
+        <v>6.01</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1350">
+        <v>9.82</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1351">
+        <v>1.28</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1352">
+        <v>4.18</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1353">
+        <v>3.96</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1353" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1354">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1354" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1355">
+        <v>10.34</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1356">
+        <v>2.9</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1357">
+        <v>15.1</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1357" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1358">
+        <v>4.57</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1359">
+        <v>4.95</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1360">
+        <v>3.2</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1361">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1361" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1362">
+        <v>8</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1362" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1363">
+        <v>9.92</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1363" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1364">
+        <v>6.81</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1365">
+        <v>2.84</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1366">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1366" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1367">
+        <v>7.53</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1367" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1368">
+        <v>5.82</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1368" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1369">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1369" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1370">
+        <v>12.39</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1371">
+        <v>1.78</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1371" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1372">
+        <v>14.66</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1372" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1373">
+        <v>2.1</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1373" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1374">
+        <v>11.8</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1374" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1375">
+        <v>18.02</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1376">
+        <v>11.36</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1376" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1377">
+        <v>6.76</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1377" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1378">
+        <v>8.23</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1378" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1379">
+        <v>3.85</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1379" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1380">
+        <v>5.19</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1381">
+        <v>11.47</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1381" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1382">
+        <v>14.57</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1382" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1383">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1383" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1384" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1385">
+        <v>16.78</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1386">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1386" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1387">
+        <v>1.81</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1387" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1388">
+        <v>7.91</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1388" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1389">
+        <v>2.23</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1389" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1390">
+        <v>10.31</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1390" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1391">
+        <v>1.73</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1391" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1392">
+        <v>3.19</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1393">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1393" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1394">
+        <v>7.46</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1394" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1395">
+        <v>4.72</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1395" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1396">
+        <v>3.64</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1396" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1397">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1397" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1398">
+        <v>4.87</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1398" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1399" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1400">
+        <v>11.52</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1400" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1401">
+        <v>2.09</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1401" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1402">
+        <v>12.25</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1402" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1403">
+        <v>6.63</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1403" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1404" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1405">
+        <v>8.82</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1405" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1406">
+        <v>1.29</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1406" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1407">
+        <v>6.95</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1407" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1408">
+        <v>5.8</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1408" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1409">
+        <v>3.02</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1409" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1410">
+        <v>2.17</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1410" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1411">
+        <v>5.08</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1411" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1412">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1412" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1413">
+        <v>8.77</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1413" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1414">
+        <v>6.53</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1414" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1415">
+        <v>9.27</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1415" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1416">
+        <v>4.26</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1416" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1417">
+        <v>3.31</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1417" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1418">
+        <v>6.59</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1418" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1419">
+        <v>8.27</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1419" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1420">
+        <v>3.03</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1420" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1421">
+        <v>4.38</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1421" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1422">
+        <v>10.32</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1422" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1423">
+        <v>2.15</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1423" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1424">
+        <v>3.56</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1424" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1425">
+        <v>2.04</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1425" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1426">
+        <v>5.92</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1426" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1427">
+        <v>2.16</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1427" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1428">
+        <v>6.04</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1428" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1429">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1429" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1430">
+        <v>8.93</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1430" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1431">
+        <v>2.39</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1431" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1432">
+        <v>11.39</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1432" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1433">
+        <v>2.19</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1433" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1434">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1434" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1435">
+        <v>7.74</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1435" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1436">
+        <v>9.85</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1436" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1437">
+        <v>1.95</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1437" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1438">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1438" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1439">
+        <v>2.42</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1439" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1440">
+        <v>15.63</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1440" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1441">
+        <v>10.54</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1441" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1442">
+        <v>3.01</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1442" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1443" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1444">
+        <v>11.72</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1444" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1445">
+        <v>2.85</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1445" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1446">
+        <v>7.73</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1446" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1447">
+        <v>8.98</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1447" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1448">
+        <v>3.7</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1448" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1449">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1449" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1450">
+        <v>8.94</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1450" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1451">
+        <v>10.17</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1451" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1452">
+        <v>6.21</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1452" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1453">
+        <v>7.63</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1453" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1454">
+        <v>3.68</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1454" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1455">
+        <v>4.03</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1455" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1456" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1457">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1457" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1458">
+        <v>13.09</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1458" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1459" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1460">
+        <v>4.21</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1460" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1461">
+        <v>4.91</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1461" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1462">
+        <v>15.18</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1462" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1463">
+        <v>8.33</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1463" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1464">
+        <v>3.73</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1464" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1465">
+        <v>16.89</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1465" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1466">
+        <v>2.77</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1466" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1467">
+        <v>6.81</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1467" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1468">
+        <v>3.65</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1468" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1469">
+        <v>1.26</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1469" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1470" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1470" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1471">
+        <v>2.87</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1471" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1472">
+        <v>1.32</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1472" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1473">
+        <v>5.81</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1473" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1474">
+        <v>2.96</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1474" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1475">
+        <v>14.5</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1475" s="1">
+        <v>45418</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>